--- a/Code/Results/Cases/Case_2_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.08646882176336</v>
+        <v>18.08646882176329</v>
       </c>
       <c r="C2">
-        <v>15.47660047175815</v>
+        <v>15.47660047175818</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.423317172136212</v>
+        <v>3.423317172136236</v>
       </c>
       <c r="F2">
-        <v>35.80881085454005</v>
+        <v>35.80881085454006</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>29.02474521515303</v>
+        <v>29.02474521515312</v>
       </c>
       <c r="I2">
-        <v>12.64221183623376</v>
+        <v>12.64221183623394</v>
       </c>
       <c r="J2">
-        <v>16.94533097280627</v>
+        <v>16.94533097280622</v>
       </c>
       <c r="K2">
-        <v>7.8168170145406</v>
+        <v>7.816817014540596</v>
       </c>
       <c r="L2">
-        <v>13.37510754127025</v>
+        <v>13.37510754127022</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.78724402328364</v>
+        <v>16.78724402328374</v>
       </c>
       <c r="C3">
-        <v>14.34447051189139</v>
+        <v>14.3444705118913</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.351659102542172</v>
+        <v>3.351659102542223</v>
       </c>
       <c r="F3">
-        <v>33.62129150168246</v>
+        <v>33.62129150168244</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>27.88982759692227</v>
+        <v>27.88982759692215</v>
       </c>
       <c r="I3">
-        <v>12.58238656164149</v>
+        <v>12.58238656164145</v>
       </c>
       <c r="J3">
-        <v>15.74543424413635</v>
+        <v>15.74543424413639</v>
       </c>
       <c r="K3">
-        <v>7.319350419706293</v>
+        <v>7.319350419706241</v>
       </c>
       <c r="L3">
-        <v>12.50948054547349</v>
+        <v>12.50948054547351</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.94974468172584</v>
+        <v>15.94974468172579</v>
       </c>
       <c r="C4">
-        <v>13.61657783372888</v>
+        <v>13.61657783372884</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.309114896151104</v>
+        <v>3.309114896151027</v>
       </c>
       <c r="F4">
-        <v>32.23720816287389</v>
+        <v>32.23720816287383</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>27.19409503480169</v>
+        <v>27.19409503480163</v>
       </c>
       <c r="I4">
-        <v>12.55070034390164</v>
+        <v>12.55070034390172</v>
       </c>
       <c r="J4">
-        <v>14.97253137007389</v>
+        <v>14.97253137007386</v>
       </c>
       <c r="K4">
-        <v>6.999009423517827</v>
+        <v>6.999009423517853</v>
       </c>
       <c r="L4">
-        <v>11.95256587726854</v>
+        <v>11.95256587726857</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.59827225052806</v>
+        <v>15.5982722505281</v>
       </c>
       <c r="C5">
-        <v>13.31154069426503</v>
+        <v>13.31154069426501</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.292169008892597</v>
+        <v>3.292169008892423</v>
       </c>
       <c r="F5">
-        <v>31.6632122388965</v>
+        <v>31.66321223889651</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>26.91101375273388</v>
+        <v>26.91101375273384</v>
       </c>
       <c r="I5">
-        <v>12.53896477446059</v>
+        <v>12.53896477446041</v>
       </c>
       <c r="J5">
         <v>14.64829834842879</v>
       </c>
       <c r="K5">
-        <v>6.864692939523981</v>
+        <v>6.864692939524112</v>
       </c>
       <c r="L5">
-        <v>11.71915581348282</v>
+        <v>11.71915581348289</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.53929024431286</v>
+        <v>15.53929024431279</v>
       </c>
       <c r="C6">
-        <v>13.26037635951283</v>
+        <v>13.26037635951288</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.289379538849525</v>
+        <v>3.289379538849429</v>
       </c>
       <c r="F6">
         <v>31.56731044190037</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>26.8640399004927</v>
+        <v>26.86403990049281</v>
       </c>
       <c r="I6">
-        <v>12.53708459237371</v>
+        <v>12.53708459237383</v>
       </c>
       <c r="J6">
-        <v>14.59389498448243</v>
+        <v>14.59389498448238</v>
       </c>
       <c r="K6">
-        <v>6.842161108636975</v>
+        <v>6.84216110863707</v>
       </c>
       <c r="L6">
-        <v>11.68000613807857</v>
+        <v>11.68000613807856</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.94504607362278</v>
+        <v>15.94504607362281</v>
       </c>
       <c r="C7">
-        <v>13.61249829209383</v>
+        <v>13.61249829209392</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3.308884739911763</v>
+        <v>3.30888473991167</v>
       </c>
       <c r="F7">
         <v>32.22950690190365</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>27.19027530496332</v>
+        <v>27.19027530496326</v>
       </c>
       <c r="I7">
-        <v>12.55053742627264</v>
+        <v>12.55053742627242</v>
       </c>
       <c r="J7">
-        <v>14.96819640290577</v>
+        <v>14.96819640290581</v>
       </c>
       <c r="K7">
-        <v>6.997213301456902</v>
+        <v>6.997213301456963</v>
       </c>
       <c r="L7">
-        <v>11.94944427809033</v>
+        <v>11.94944427809041</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.64663540499013</v>
+        <v>17.64663540499021</v>
       </c>
       <c r="C8">
-        <v>15.09293014236443</v>
+        <v>15.09293014236449</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.398322841503701</v>
+        <v>3.398322841503781</v>
       </c>
       <c r="F8">
-        <v>35.06320513100592</v>
+        <v>35.06320513100606</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>28.63327568941375</v>
+        <v>28.63327568941379</v>
       </c>
       <c r="I8">
-        <v>12.62047905568497</v>
+        <v>12.62047905568481</v>
       </c>
       <c r="J8">
-        <v>16.53900198096985</v>
+        <v>16.53900198096998</v>
       </c>
       <c r="K8">
-        <v>7.648361193997595</v>
+        <v>7.648361193997571</v>
       </c>
       <c r="L8">
-        <v>13.08186610313123</v>
+        <v>13.08186610313128</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.67694294265568</v>
+        <v>20.67694294265573</v>
       </c>
       <c r="C9">
-        <v>17.74495029219841</v>
+        <v>17.74495029219829</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3.584170353993567</v>
+        <v>3.584170353993625</v>
       </c>
       <c r="F9">
-        <v>40.28758811794567</v>
+        <v>40.28758811794566</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>31.46741021277851</v>
+        <v>31.46741021277849</v>
       </c>
       <c r="I9">
-        <v>12.80220882605678</v>
+        <v>12.80220882605683</v>
       </c>
       <c r="J9">
-        <v>19.34109344886635</v>
+        <v>19.34109344886637</v>
       </c>
       <c r="K9">
-        <v>8.808901678196582</v>
+        <v>8.808901678196527</v>
       </c>
       <c r="L9">
         <v>15.10500420046444</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.73038878434071</v>
+        <v>22.73038878434069</v>
       </c>
       <c r="C10">
-        <v>19.55408872976116</v>
+        <v>19.55408872976133</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3.725770414562161</v>
+        <v>3.725770414562162</v>
       </c>
       <c r="F10">
-        <v>43.99761486723096</v>
+        <v>43.99761486723097</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>33.55069492567851</v>
+        <v>33.55069492567848</v>
       </c>
       <c r="I10">
-        <v>12.96987648224659</v>
+        <v>12.96987648224654</v>
       </c>
       <c r="J10">
-        <v>21.24354928576254</v>
+        <v>21.24354928576259</v>
       </c>
       <c r="K10">
-        <v>9.593825651808391</v>
+        <v>9.593825651808427</v>
       </c>
       <c r="L10">
         <v>16.47802277283482</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.63054102428176</v>
+        <v>23.63054102428172</v>
       </c>
       <c r="C11">
-        <v>20.35041299308299</v>
+        <v>20.35041299308297</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.791059317096051</v>
+        <v>3.791059317096047</v>
       </c>
       <c r="F11">
         <v>45.69608305972564</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>34.4996804673285</v>
+        <v>34.49968046732843</v>
       </c>
       <c r="I11">
-        <v>13.05534801144988</v>
+        <v>13.05534801144989</v>
       </c>
       <c r="J11">
         <v>22.07851107132536</v>
       </c>
       <c r="K11">
-        <v>9.937097225070575</v>
+        <v>9.937097225070593</v>
       </c>
       <c r="L11">
         <v>17.07996045370964</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.96685729422407</v>
+        <v>23.96685729422417</v>
       </c>
       <c r="C12">
-        <v>20.64846836698665</v>
+        <v>20.64846836698681</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.815894128536316</v>
+        <v>3.815894128536383</v>
       </c>
       <c r="F12">
-        <v>46.33189234734537</v>
+        <v>46.3318923473456</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>34.85940692086836</v>
+        <v>34.85940692086852</v>
       </c>
       <c r="I12">
-        <v>13.08920803365527</v>
+        <v>13.08920803365523</v>
       </c>
       <c r="J12">
-        <v>22.3906334357633</v>
+        <v>22.39063343576345</v>
       </c>
       <c r="K12">
-        <v>10.06518963837186</v>
+        <v>10.06518963837182</v>
       </c>
       <c r="L12">
-        <v>17.30483159458157</v>
+        <v>17.30483159458166</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.89462223221144</v>
+        <v>23.89462223221145</v>
       </c>
       <c r="C13">
-        <v>20.58442636145396</v>
+        <v>20.58442636145405</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3.810540736765224</v>
+        <v>3.810540736765248</v>
       </c>
       <c r="F13">
-        <v>46.19527923533202</v>
+        <v>46.19527923533214</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>34.78191326652465</v>
+        <v>34.78191326652471</v>
       </c>
       <c r="I13">
-        <v>13.08184626034546</v>
+        <v>13.08184626034551</v>
       </c>
       <c r="J13">
-        <v>22.32358724055976</v>
+        <v>22.3235872405598</v>
       </c>
       <c r="K13">
-        <v>10.03768550326346</v>
+        <v>10.03768550326351</v>
       </c>
       <c r="L13">
-        <v>17.25653478669053</v>
+        <v>17.25653478669057</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.65829912651758</v>
+        <v>23.65829912651754</v>
       </c>
       <c r="C14">
-        <v>20.37500213096205</v>
+        <v>20.37500213096192</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.79310032719026</v>
+        <v>3.793100327190159</v>
       </c>
       <c r="F14">
-        <v>45.74853630812559</v>
+        <v>45.74853630812555</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>34.52926668534829</v>
+        <v>34.5292666853482</v>
       </c>
       <c r="I14">
         <v>13.05810269508274</v>
       </c>
       <c r="J14">
-        <v>22.10426892146489</v>
+        <v>22.10426892146478</v>
       </c>
       <c r="K14">
-        <v>9.947672944145994</v>
+        <v>9.947672944146072</v>
       </c>
       <c r="L14">
-        <v>17.09852107684322</v>
+        <v>17.09852107684329</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.5129622505251</v>
+        <v>23.51296225052517</v>
       </c>
       <c r="C15">
-        <v>20.24627940108739</v>
+        <v>20.24627940108733</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3.78243171986106</v>
+        <v>3.782431719861038</v>
       </c>
       <c r="F15">
-        <v>45.47394846927057</v>
+        <v>45.47394846927063</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>34.3745679381447</v>
+        <v>34.37456793814474</v>
       </c>
       <c r="I15">
-        <v>13.04375908410701</v>
+        <v>13.04375908410705</v>
       </c>
       <c r="J15">
-        <v>21.9694117626815</v>
+        <v>21.96941176268155</v>
       </c>
       <c r="K15">
-        <v>9.892293381949223</v>
+        <v>9.892293381949168</v>
       </c>
       <c r="L15">
-        <v>17.00133943758628</v>
+        <v>17.0013394375863</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.67090564318172</v>
+        <v>22.67090564318178</v>
       </c>
       <c r="C16">
-        <v>19.50153845977461</v>
+        <v>19.50153845977469</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3.721519892771995</v>
+        <v>3.721519892772063</v>
       </c>
       <c r="F16">
-        <v>43.88556055108482</v>
+        <v>43.88556055108489</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>33.48871589663106</v>
+        <v>33.48871589663103</v>
       </c>
       <c r="I16">
-        <v>12.96448992888573</v>
+        <v>12.96448992888562</v>
       </c>
       <c r="J16">
-        <v>21.18839596321277</v>
+        <v>21.18839596321286</v>
       </c>
       <c r="K16">
-        <v>9.571121581680941</v>
+        <v>9.571121581680943</v>
       </c>
       <c r="L16">
-        <v>16.43824430008011</v>
+        <v>16.43824430008016</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.14585431021994</v>
+        <v>22.14585431022003</v>
       </c>
       <c r="C17">
-        <v>19.03806200521337</v>
+        <v>19.03806200521327</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3.684364778742357</v>
+        <v>3.684364778742349</v>
       </c>
       <c r="F17">
-        <v>42.8975426644569</v>
+        <v>42.89754266445704</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>32.94570595842364</v>
+        <v>32.94570595842378</v>
       </c>
       <c r="I17">
-        <v>12.91833165899667</v>
+        <v>12.91833165899672</v>
       </c>
       <c r="J17">
-        <v>20.70167932016414</v>
+        <v>20.7016793201642</v>
       </c>
       <c r="K17">
-        <v>9.370617699237746</v>
+        <v>9.370617699237684</v>
       </c>
       <c r="L17">
-        <v>16.08712635286942</v>
+        <v>16.08712635286944</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.84063893150964</v>
+        <v>21.84063893150945</v>
       </c>
       <c r="C18">
-        <v>18.76895028766333</v>
+        <v>18.76895028766312</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3.663077051613478</v>
+        <v>3.663077051613391</v>
       </c>
       <c r="F18">
-        <v>42.33947761046252</v>
+        <v>42.33947761046248</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>32.63348643868252</v>
+        <v>32.63348643868256</v>
       </c>
       <c r="I18">
-        <v>12.89263700977552</v>
+        <v>12.8926370097756</v>
       </c>
       <c r="J18">
-        <v>20.41884272196292</v>
+        <v>20.41884272196274</v>
       </c>
       <c r="K18">
-        <v>9.253988887972076</v>
+        <v>9.25398888797211</v>
       </c>
       <c r="L18">
-        <v>15.88302732750844</v>
+        <v>15.88302732750836</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.73673579266947</v>
+        <v>21.73673579266964</v>
       </c>
       <c r="C19">
-        <v>18.67738917619551</v>
+        <v>18.67738917619555</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>3.6558841431702</v>
+        <v>3.65588414317025</v>
       </c>
       <c r="F19">
-        <v>42.15542882949833</v>
+        <v>42.15542882949844</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>32.52778828287683</v>
+        <v>32.52778828287686</v>
       </c>
       <c r="I19">
-        <v>12.88407912933288</v>
+        <v>12.88407912933273</v>
       </c>
       <c r="J19">
-        <v>20.32257358280906</v>
+        <v>20.32257358280921</v>
       </c>
       <c r="K19">
-        <v>9.214273930820651</v>
+        <v>9.2142739308206</v>
       </c>
       <c r="L19">
-        <v>15.81354916690073</v>
+        <v>15.81354916690081</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.20207787510592</v>
+        <v>22.20207787510586</v>
       </c>
       <c r="C20">
-        <v>19.08765964405618</v>
+        <v>19.0876596440562</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>3.688311541463358</v>
+        <v>3.688311541463372</v>
       </c>
       <c r="F20">
-        <v>43.00324649779105</v>
+        <v>43.00324649779104</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33.00349834897846</v>
+        <v>33.0034983489784</v>
       </c>
       <c r="I20">
-        <v>12.92315569436163</v>
+        <v>12.92315569436161</v>
       </c>
       <c r="J20">
-        <v>20.75378804433658</v>
+        <v>20.75378804433656</v>
       </c>
       <c r="K20">
-        <v>9.392096081024327</v>
+        <v>9.392096081024345</v>
       </c>
       <c r="L20">
-        <v>16.12472421025508</v>
+        <v>16.12472421025507</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.72783361266085</v>
+        <v>23.72783361266071</v>
       </c>
       <c r="C21">
-        <v>20.43660703165952</v>
+        <v>20.43660703165957</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3.798220069151597</v>
+        <v>3.798220069151514</v>
       </c>
       <c r="F21">
-        <v>45.87995156483768</v>
+        <v>45.87995156483758</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>34.60346328615825</v>
+        <v>34.60346328615819</v>
       </c>
       <c r="I21">
-        <v>13.06503473547323</v>
+        <v>13.06503473547315</v>
       </c>
       <c r="J21">
-        <v>22.16879541428037</v>
+        <v>22.16879541428032</v>
       </c>
       <c r="K21">
-        <v>9.974162547785442</v>
+        <v>9.974162547785523</v>
       </c>
       <c r="L21">
-        <v>17.14501519920912</v>
+        <v>17.14501519920913</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.6986596855425</v>
+        <v>24.69865968554236</v>
       </c>
       <c r="C22">
-        <v>21.29804182787628</v>
+        <v>21.29804182787641</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.870697271905204</v>
+        <v>3.870697271905203</v>
       </c>
       <c r="F22">
-        <v>47.71738905391315</v>
+        <v>47.71738905391299</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>35.6514176225699</v>
+        <v>35.65141762256975</v>
       </c>
       <c r="I22">
-        <v>13.16656501477417</v>
+        <v>13.16656501477418</v>
       </c>
       <c r="J22">
-        <v>23.07010527586086</v>
+        <v>23.0701052758608</v>
       </c>
       <c r="K22">
-        <v>10.343568655567</v>
+        <v>10.34356865556709</v>
       </c>
       <c r="L22">
-        <v>17.79405121429809</v>
+        <v>17.79405121429811</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.18279994037857</v>
+        <v>24.18279994037863</v>
       </c>
       <c r="C23">
-        <v>20.83999960881653</v>
+        <v>20.83999960881646</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3.831959277992386</v>
+        <v>3.831959277992295</v>
       </c>
       <c r="F23">
-        <v>46.74045289654428</v>
+        <v>46.74045289654439</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>35.0918120392403</v>
+        <v>35.09181203924047</v>
       </c>
       <c r="I23">
         <v>13.11150799514121</v>
       </c>
       <c r="J23">
-        <v>22.59108915466591</v>
+        <v>22.59108915466595</v>
       </c>
       <c r="K23">
         <v>10.14738488596012</v>
       </c>
       <c r="L23">
-        <v>17.44920574796972</v>
+        <v>17.44920574796974</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.17666968033024</v>
+        <v>22.17666968033011</v>
       </c>
       <c r="C24">
-        <v>19.06524483972672</v>
+        <v>19.06524483972667</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>3.686526980728092</v>
+        <v>3.68652698072817</v>
       </c>
       <c r="F24">
-        <v>42.95547458751994</v>
+        <v>42.95547458751979</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>32.97737053343996</v>
+        <v>32.97737053343983</v>
       </c>
       <c r="I24">
-        <v>12.9209721368734</v>
+        <v>12.92097213687344</v>
       </c>
       <c r="J24">
-        <v>20.73023911030823</v>
+        <v>20.73023911030813</v>
       </c>
       <c r="K24">
-        <v>9.382389936047218</v>
+        <v>9.382389936047213</v>
       </c>
       <c r="L24">
-        <v>16.10773319939388</v>
+        <v>16.1077331993938</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.88862478003629</v>
+        <v>19.88862478003624</v>
       </c>
       <c r="C25">
         <v>17.05306136988284</v>
@@ -1295,28 +1295,28 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3.53291799917316</v>
+        <v>3.532917999173175</v>
       </c>
       <c r="F25">
-        <v>38.91043557536875</v>
+        <v>38.91043557536865</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>30.70062306365072</v>
+        <v>30.70062306365061</v>
       </c>
       <c r="I25">
-        <v>12.74759785166252</v>
+        <v>12.74759785166251</v>
       </c>
       <c r="J25">
-        <v>18.61154430522131</v>
+        <v>18.61154430522123</v>
       </c>
       <c r="K25">
-        <v>8.507105810352883</v>
+        <v>8.507105810352904</v>
       </c>
       <c r="L25">
-        <v>14.57818354651728</v>
+        <v>14.57818354651723</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.08646882176329</v>
+        <v>18.08646882176336</v>
       </c>
       <c r="C2">
-        <v>15.47660047175818</v>
+        <v>15.47660047175815</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.423317172136236</v>
+        <v>3.423317172136212</v>
       </c>
       <c r="F2">
-        <v>35.80881085454006</v>
+        <v>35.80881085454005</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>29.02474521515312</v>
+        <v>29.02474521515303</v>
       </c>
       <c r="I2">
-        <v>12.64221183623394</v>
+        <v>12.64221183623376</v>
       </c>
       <c r="J2">
-        <v>16.94533097280622</v>
+        <v>16.94533097280627</v>
       </c>
       <c r="K2">
-        <v>7.816817014540596</v>
+        <v>7.8168170145406</v>
       </c>
       <c r="L2">
-        <v>13.37510754127022</v>
+        <v>13.37510754127025</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.78724402328374</v>
+        <v>16.78724402328364</v>
       </c>
       <c r="C3">
-        <v>14.3444705118913</v>
+        <v>14.34447051189139</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.351659102542223</v>
+        <v>3.351659102542172</v>
       </c>
       <c r="F3">
-        <v>33.62129150168244</v>
+        <v>33.62129150168246</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>27.88982759692215</v>
+        <v>27.88982759692227</v>
       </c>
       <c r="I3">
-        <v>12.58238656164145</v>
+        <v>12.58238656164149</v>
       </c>
       <c r="J3">
-        <v>15.74543424413639</v>
+        <v>15.74543424413635</v>
       </c>
       <c r="K3">
-        <v>7.319350419706241</v>
+        <v>7.319350419706293</v>
       </c>
       <c r="L3">
-        <v>12.50948054547351</v>
+        <v>12.50948054547349</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.94974468172579</v>
+        <v>15.94974468172584</v>
       </c>
       <c r="C4">
-        <v>13.61657783372884</v>
+        <v>13.61657783372888</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.309114896151027</v>
+        <v>3.309114896151104</v>
       </c>
       <c r="F4">
-        <v>32.23720816287383</v>
+        <v>32.23720816287389</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>27.19409503480163</v>
+        <v>27.19409503480169</v>
       </c>
       <c r="I4">
-        <v>12.55070034390172</v>
+        <v>12.55070034390164</v>
       </c>
       <c r="J4">
-        <v>14.97253137007386</v>
+        <v>14.97253137007389</v>
       </c>
       <c r="K4">
-        <v>6.999009423517853</v>
+        <v>6.999009423517827</v>
       </c>
       <c r="L4">
-        <v>11.95256587726857</v>
+        <v>11.95256587726854</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.5982722505281</v>
+        <v>15.59827225052806</v>
       </c>
       <c r="C5">
-        <v>13.31154069426501</v>
+        <v>13.31154069426503</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.292169008892423</v>
+        <v>3.292169008892597</v>
       </c>
       <c r="F5">
-        <v>31.66321223889651</v>
+        <v>31.6632122388965</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>26.91101375273384</v>
+        <v>26.91101375273388</v>
       </c>
       <c r="I5">
-        <v>12.53896477446041</v>
+        <v>12.53896477446059</v>
       </c>
       <c r="J5">
         <v>14.64829834842879</v>
       </c>
       <c r="K5">
-        <v>6.864692939524112</v>
+        <v>6.864692939523981</v>
       </c>
       <c r="L5">
-        <v>11.71915581348289</v>
+        <v>11.71915581348282</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.53929024431279</v>
+        <v>15.53929024431286</v>
       </c>
       <c r="C6">
-        <v>13.26037635951288</v>
+        <v>13.26037635951283</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.289379538849429</v>
+        <v>3.289379538849525</v>
       </c>
       <c r="F6">
         <v>31.56731044190037</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>26.86403990049281</v>
+        <v>26.8640399004927</v>
       </c>
       <c r="I6">
-        <v>12.53708459237383</v>
+        <v>12.53708459237371</v>
       </c>
       <c r="J6">
-        <v>14.59389498448238</v>
+        <v>14.59389498448243</v>
       </c>
       <c r="K6">
-        <v>6.84216110863707</v>
+        <v>6.842161108636975</v>
       </c>
       <c r="L6">
-        <v>11.68000613807856</v>
+        <v>11.68000613807857</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.94504607362281</v>
+        <v>15.94504607362278</v>
       </c>
       <c r="C7">
-        <v>13.61249829209392</v>
+        <v>13.61249829209383</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3.30888473991167</v>
+        <v>3.308884739911763</v>
       </c>
       <c r="F7">
         <v>32.22950690190365</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>27.19027530496326</v>
+        <v>27.19027530496332</v>
       </c>
       <c r="I7">
-        <v>12.55053742627242</v>
+        <v>12.55053742627264</v>
       </c>
       <c r="J7">
-        <v>14.96819640290581</v>
+        <v>14.96819640290577</v>
       </c>
       <c r="K7">
-        <v>6.997213301456963</v>
+        <v>6.997213301456902</v>
       </c>
       <c r="L7">
-        <v>11.94944427809041</v>
+        <v>11.94944427809033</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.64663540499021</v>
+        <v>17.64663540499013</v>
       </c>
       <c r="C8">
-        <v>15.09293014236449</v>
+        <v>15.09293014236443</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.398322841503781</v>
+        <v>3.398322841503701</v>
       </c>
       <c r="F8">
-        <v>35.06320513100606</v>
+        <v>35.06320513100592</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>28.63327568941379</v>
+        <v>28.63327568941375</v>
       </c>
       <c r="I8">
-        <v>12.62047905568481</v>
+        <v>12.62047905568497</v>
       </c>
       <c r="J8">
-        <v>16.53900198096998</v>
+        <v>16.53900198096985</v>
       </c>
       <c r="K8">
-        <v>7.648361193997571</v>
+        <v>7.648361193997595</v>
       </c>
       <c r="L8">
-        <v>13.08186610313128</v>
+        <v>13.08186610313123</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.67694294265573</v>
+        <v>20.67694294265568</v>
       </c>
       <c r="C9">
-        <v>17.74495029219829</v>
+        <v>17.74495029219841</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3.584170353993625</v>
+        <v>3.584170353993567</v>
       </c>
       <c r="F9">
-        <v>40.28758811794566</v>
+        <v>40.28758811794567</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>31.46741021277849</v>
+        <v>31.46741021277851</v>
       </c>
       <c r="I9">
-        <v>12.80220882605683</v>
+        <v>12.80220882605678</v>
       </c>
       <c r="J9">
-        <v>19.34109344886637</v>
+        <v>19.34109344886635</v>
       </c>
       <c r="K9">
-        <v>8.808901678196527</v>
+        <v>8.808901678196582</v>
       </c>
       <c r="L9">
         <v>15.10500420046444</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.73038878434069</v>
+        <v>22.73038878434071</v>
       </c>
       <c r="C10">
-        <v>19.55408872976133</v>
+        <v>19.55408872976116</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3.725770414562162</v>
+        <v>3.725770414562161</v>
       </c>
       <c r="F10">
-        <v>43.99761486723097</v>
+        <v>43.99761486723096</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>33.55069492567848</v>
+        <v>33.55069492567851</v>
       </c>
       <c r="I10">
-        <v>12.96987648224654</v>
+        <v>12.96987648224659</v>
       </c>
       <c r="J10">
-        <v>21.24354928576259</v>
+        <v>21.24354928576254</v>
       </c>
       <c r="K10">
-        <v>9.593825651808427</v>
+        <v>9.593825651808391</v>
       </c>
       <c r="L10">
         <v>16.47802277283482</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.63054102428172</v>
+        <v>23.63054102428176</v>
       </c>
       <c r="C11">
-        <v>20.35041299308297</v>
+        <v>20.35041299308299</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.791059317096047</v>
+        <v>3.791059317096051</v>
       </c>
       <c r="F11">
         <v>45.69608305972564</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>34.49968046732843</v>
+        <v>34.4996804673285</v>
       </c>
       <c r="I11">
-        <v>13.05534801144989</v>
+        <v>13.05534801144988</v>
       </c>
       <c r="J11">
         <v>22.07851107132536</v>
       </c>
       <c r="K11">
-        <v>9.937097225070593</v>
+        <v>9.937097225070575</v>
       </c>
       <c r="L11">
         <v>17.07996045370964</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.96685729422417</v>
+        <v>23.96685729422407</v>
       </c>
       <c r="C12">
-        <v>20.64846836698681</v>
+        <v>20.64846836698665</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.815894128536383</v>
+        <v>3.815894128536316</v>
       </c>
       <c r="F12">
-        <v>46.3318923473456</v>
+        <v>46.33189234734537</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>34.85940692086852</v>
+        <v>34.85940692086836</v>
       </c>
       <c r="I12">
-        <v>13.08920803365523</v>
+        <v>13.08920803365527</v>
       </c>
       <c r="J12">
-        <v>22.39063343576345</v>
+        <v>22.3906334357633</v>
       </c>
       <c r="K12">
-        <v>10.06518963837182</v>
+        <v>10.06518963837186</v>
       </c>
       <c r="L12">
-        <v>17.30483159458166</v>
+        <v>17.30483159458157</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.89462223221145</v>
+        <v>23.89462223221144</v>
       </c>
       <c r="C13">
-        <v>20.58442636145405</v>
+        <v>20.58442636145396</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3.810540736765248</v>
+        <v>3.810540736765224</v>
       </c>
       <c r="F13">
-        <v>46.19527923533214</v>
+        <v>46.19527923533202</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>34.78191326652471</v>
+        <v>34.78191326652465</v>
       </c>
       <c r="I13">
-        <v>13.08184626034551</v>
+        <v>13.08184626034546</v>
       </c>
       <c r="J13">
-        <v>22.3235872405598</v>
+        <v>22.32358724055976</v>
       </c>
       <c r="K13">
-        <v>10.03768550326351</v>
+        <v>10.03768550326346</v>
       </c>
       <c r="L13">
-        <v>17.25653478669057</v>
+        <v>17.25653478669053</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.65829912651754</v>
+        <v>23.65829912651758</v>
       </c>
       <c r="C14">
-        <v>20.37500213096192</v>
+        <v>20.37500213096205</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.793100327190159</v>
+        <v>3.79310032719026</v>
       </c>
       <c r="F14">
-        <v>45.74853630812555</v>
+        <v>45.74853630812559</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>34.5292666853482</v>
+        <v>34.52926668534829</v>
       </c>
       <c r="I14">
         <v>13.05810269508274</v>
       </c>
       <c r="J14">
-        <v>22.10426892146478</v>
+        <v>22.10426892146489</v>
       </c>
       <c r="K14">
-        <v>9.947672944146072</v>
+        <v>9.947672944145994</v>
       </c>
       <c r="L14">
-        <v>17.09852107684329</v>
+        <v>17.09852107684322</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.51296225052517</v>
+        <v>23.5129622505251</v>
       </c>
       <c r="C15">
-        <v>20.24627940108733</v>
+        <v>20.24627940108739</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3.782431719861038</v>
+        <v>3.78243171986106</v>
       </c>
       <c r="F15">
-        <v>45.47394846927063</v>
+        <v>45.47394846927057</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>34.37456793814474</v>
+        <v>34.3745679381447</v>
       </c>
       <c r="I15">
-        <v>13.04375908410705</v>
+        <v>13.04375908410701</v>
       </c>
       <c r="J15">
-        <v>21.96941176268155</v>
+        <v>21.9694117626815</v>
       </c>
       <c r="K15">
-        <v>9.892293381949168</v>
+        <v>9.892293381949223</v>
       </c>
       <c r="L15">
-        <v>17.0013394375863</v>
+        <v>17.00133943758628</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.67090564318178</v>
+        <v>22.67090564318172</v>
       </c>
       <c r="C16">
-        <v>19.50153845977469</v>
+        <v>19.50153845977461</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3.721519892772063</v>
+        <v>3.721519892771995</v>
       </c>
       <c r="F16">
-        <v>43.88556055108489</v>
+        <v>43.88556055108482</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>33.48871589663103</v>
+        <v>33.48871589663106</v>
       </c>
       <c r="I16">
-        <v>12.96448992888562</v>
+        <v>12.96448992888573</v>
       </c>
       <c r="J16">
-        <v>21.18839596321286</v>
+        <v>21.18839596321277</v>
       </c>
       <c r="K16">
-        <v>9.571121581680943</v>
+        <v>9.571121581680941</v>
       </c>
       <c r="L16">
-        <v>16.43824430008016</v>
+        <v>16.43824430008011</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.14585431022003</v>
+        <v>22.14585431021994</v>
       </c>
       <c r="C17">
-        <v>19.03806200521327</v>
+        <v>19.03806200521337</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3.684364778742349</v>
+        <v>3.684364778742357</v>
       </c>
       <c r="F17">
-        <v>42.89754266445704</v>
+        <v>42.8975426644569</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>32.94570595842378</v>
+        <v>32.94570595842364</v>
       </c>
       <c r="I17">
-        <v>12.91833165899672</v>
+        <v>12.91833165899667</v>
       </c>
       <c r="J17">
-        <v>20.7016793201642</v>
+        <v>20.70167932016414</v>
       </c>
       <c r="K17">
-        <v>9.370617699237684</v>
+        <v>9.370617699237746</v>
       </c>
       <c r="L17">
-        <v>16.08712635286944</v>
+        <v>16.08712635286942</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.84063893150945</v>
+        <v>21.84063893150964</v>
       </c>
       <c r="C18">
-        <v>18.76895028766312</v>
+        <v>18.76895028766333</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3.663077051613391</v>
+        <v>3.663077051613478</v>
       </c>
       <c r="F18">
-        <v>42.33947761046248</v>
+        <v>42.33947761046252</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>32.63348643868256</v>
+        <v>32.63348643868252</v>
       </c>
       <c r="I18">
-        <v>12.8926370097756</v>
+        <v>12.89263700977552</v>
       </c>
       <c r="J18">
-        <v>20.41884272196274</v>
+        <v>20.41884272196292</v>
       </c>
       <c r="K18">
-        <v>9.25398888797211</v>
+        <v>9.253988887972076</v>
       </c>
       <c r="L18">
-        <v>15.88302732750836</v>
+        <v>15.88302732750844</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.73673579266964</v>
+        <v>21.73673579266947</v>
       </c>
       <c r="C19">
-        <v>18.67738917619555</v>
+        <v>18.67738917619551</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>3.65588414317025</v>
+        <v>3.6558841431702</v>
       </c>
       <c r="F19">
-        <v>42.15542882949844</v>
+        <v>42.15542882949833</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>32.52778828287686</v>
+        <v>32.52778828287683</v>
       </c>
       <c r="I19">
-        <v>12.88407912933273</v>
+        <v>12.88407912933288</v>
       </c>
       <c r="J19">
-        <v>20.32257358280921</v>
+        <v>20.32257358280906</v>
       </c>
       <c r="K19">
-        <v>9.2142739308206</v>
+        <v>9.214273930820651</v>
       </c>
       <c r="L19">
-        <v>15.81354916690081</v>
+        <v>15.81354916690073</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.20207787510586</v>
+        <v>22.20207787510592</v>
       </c>
       <c r="C20">
-        <v>19.0876596440562</v>
+        <v>19.08765964405618</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>3.688311541463372</v>
+        <v>3.688311541463358</v>
       </c>
       <c r="F20">
-        <v>43.00324649779104</v>
+        <v>43.00324649779105</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33.0034983489784</v>
+        <v>33.00349834897846</v>
       </c>
       <c r="I20">
-        <v>12.92315569436161</v>
+        <v>12.92315569436163</v>
       </c>
       <c r="J20">
-        <v>20.75378804433656</v>
+        <v>20.75378804433658</v>
       </c>
       <c r="K20">
-        <v>9.392096081024345</v>
+        <v>9.392096081024327</v>
       </c>
       <c r="L20">
-        <v>16.12472421025507</v>
+        <v>16.12472421025508</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.72783361266071</v>
+        <v>23.72783361266085</v>
       </c>
       <c r="C21">
-        <v>20.43660703165957</v>
+        <v>20.43660703165952</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3.798220069151514</v>
+        <v>3.798220069151597</v>
       </c>
       <c r="F21">
-        <v>45.87995156483758</v>
+        <v>45.87995156483768</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>34.60346328615819</v>
+        <v>34.60346328615825</v>
       </c>
       <c r="I21">
-        <v>13.06503473547315</v>
+        <v>13.06503473547323</v>
       </c>
       <c r="J21">
-        <v>22.16879541428032</v>
+        <v>22.16879541428037</v>
       </c>
       <c r="K21">
-        <v>9.974162547785523</v>
+        <v>9.974162547785442</v>
       </c>
       <c r="L21">
-        <v>17.14501519920913</v>
+        <v>17.14501519920912</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.69865968554236</v>
+        <v>24.6986596855425</v>
       </c>
       <c r="C22">
-        <v>21.29804182787641</v>
+        <v>21.29804182787628</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.870697271905203</v>
+        <v>3.870697271905204</v>
       </c>
       <c r="F22">
-        <v>47.71738905391299</v>
+        <v>47.71738905391315</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>35.65141762256975</v>
+        <v>35.6514176225699</v>
       </c>
       <c r="I22">
-        <v>13.16656501477418</v>
+        <v>13.16656501477417</v>
       </c>
       <c r="J22">
-        <v>23.0701052758608</v>
+        <v>23.07010527586086</v>
       </c>
       <c r="K22">
-        <v>10.34356865556709</v>
+        <v>10.343568655567</v>
       </c>
       <c r="L22">
-        <v>17.79405121429811</v>
+        <v>17.79405121429809</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.18279994037863</v>
+        <v>24.18279994037857</v>
       </c>
       <c r="C23">
-        <v>20.83999960881646</v>
+        <v>20.83999960881653</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3.831959277992295</v>
+        <v>3.831959277992386</v>
       </c>
       <c r="F23">
-        <v>46.74045289654439</v>
+        <v>46.74045289654428</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>35.09181203924047</v>
+        <v>35.0918120392403</v>
       </c>
       <c r="I23">
         <v>13.11150799514121</v>
       </c>
       <c r="J23">
-        <v>22.59108915466595</v>
+        <v>22.59108915466591</v>
       </c>
       <c r="K23">
         <v>10.14738488596012</v>
       </c>
       <c r="L23">
-        <v>17.44920574796974</v>
+        <v>17.44920574796972</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.17666968033011</v>
+        <v>22.17666968033024</v>
       </c>
       <c r="C24">
-        <v>19.06524483972667</v>
+        <v>19.06524483972672</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>3.68652698072817</v>
+        <v>3.686526980728092</v>
       </c>
       <c r="F24">
-        <v>42.95547458751979</v>
+        <v>42.95547458751994</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>32.97737053343983</v>
+        <v>32.97737053343996</v>
       </c>
       <c r="I24">
-        <v>12.92097213687344</v>
+        <v>12.9209721368734</v>
       </c>
       <c r="J24">
-        <v>20.73023911030813</v>
+        <v>20.73023911030823</v>
       </c>
       <c r="K24">
-        <v>9.382389936047213</v>
+        <v>9.382389936047218</v>
       </c>
       <c r="L24">
-        <v>16.1077331993938</v>
+        <v>16.10773319939388</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.88862478003624</v>
+        <v>19.88862478003629</v>
       </c>
       <c r="C25">
         <v>17.05306136988284</v>
@@ -1295,28 +1295,28 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3.532917999173175</v>
+        <v>3.53291799917316</v>
       </c>
       <c r="F25">
-        <v>38.91043557536865</v>
+        <v>38.91043557536875</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>30.70062306365061</v>
+        <v>30.70062306365072</v>
       </c>
       <c r="I25">
-        <v>12.74759785166251</v>
+        <v>12.74759785166252</v>
       </c>
       <c r="J25">
-        <v>18.61154430522123</v>
+        <v>18.61154430522131</v>
       </c>
       <c r="K25">
-        <v>8.507105810352904</v>
+        <v>8.507105810352883</v>
       </c>
       <c r="L25">
-        <v>14.57818354651723</v>
+        <v>14.57818354651728</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.08646882176336</v>
+        <v>17.9753806412854</v>
       </c>
       <c r="C2">
-        <v>15.47660047175815</v>
+        <v>15.35537738336914</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.423317172136212</v>
+        <v>3.295689548033824</v>
       </c>
       <c r="F2">
-        <v>35.80881085454005</v>
+        <v>35.82445797007468</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.084835011838103</v>
       </c>
       <c r="H2">
-        <v>29.02474521515303</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>12.64221183623376</v>
+        <v>29.228112631677</v>
       </c>
       <c r="J2">
-        <v>16.94533097280627</v>
+        <v>12.8349183975241</v>
       </c>
       <c r="K2">
-        <v>7.8168170145406</v>
+        <v>16.81161791775026</v>
       </c>
       <c r="L2">
-        <v>13.37510754127025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>7.836081192334719</v>
+      </c>
+      <c r="M2">
+        <v>13.31625788749757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.78724402328364</v>
+        <v>16.68144697122694</v>
       </c>
       <c r="C3">
-        <v>14.34447051189139</v>
+        <v>14.23102022729702</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.351659102542172</v>
+        <v>3.180384935908029</v>
       </c>
       <c r="F3">
-        <v>33.62129150168246</v>
+        <v>33.65069954341454</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.096373499148233</v>
       </c>
       <c r="H3">
-        <v>27.88982759692227</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.58238656164149</v>
+        <v>28.11685433644582</v>
       </c>
       <c r="J3">
-        <v>15.74543424413635</v>
+        <v>12.781528643341</v>
       </c>
       <c r="K3">
-        <v>7.319350419706293</v>
+        <v>15.61531176793008</v>
       </c>
       <c r="L3">
-        <v>12.50948054547349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>7.340024572029804</v>
+      </c>
+      <c r="M3">
+        <v>12.45158584495336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.94974468172584</v>
+        <v>15.8473876479238</v>
       </c>
       <c r="C4">
-        <v>13.61657783372888</v>
+        <v>13.50829271922213</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.309114896151104</v>
+        <v>3.130634068272658</v>
       </c>
       <c r="F4">
-        <v>32.23720816287389</v>
+        <v>32.27593115098763</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.103596292721596</v>
       </c>
       <c r="H4">
-        <v>27.19409503480169</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>12.55070034390164</v>
+        <v>27.4365353280083</v>
       </c>
       <c r="J4">
-        <v>14.97253137007389</v>
+        <v>12.75372070214005</v>
       </c>
       <c r="K4">
-        <v>6.999009423517827</v>
+        <v>14.84460229011976</v>
       </c>
       <c r="L4">
-        <v>11.95256587726854</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>7.020645422763236</v>
+      </c>
+      <c r="M4">
+        <v>11.89517760786411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.59827225052806</v>
+        <v>15.49736992610529</v>
       </c>
       <c r="C5">
-        <v>13.31154069426503</v>
+        <v>13.20546871741877</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.292169008892597</v>
+        <v>3.111525381972257</v>
       </c>
       <c r="F5">
-        <v>31.6632122388965</v>
+        <v>31.70595992724087</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.106577576484479</v>
       </c>
       <c r="H5">
-        <v>26.91101375273388</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>12.53896477446059</v>
+        <v>27.15994880062776</v>
       </c>
       <c r="J5">
-        <v>14.64829834842879</v>
+        <v>12.7435497393637</v>
       </c>
       <c r="K5">
-        <v>6.864692939523981</v>
+        <v>14.52126016161159</v>
       </c>
       <c r="L5">
-        <v>11.71915581348282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>6.886747060525581</v>
+      </c>
+      <c r="M5">
+        <v>11.66195274634028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.53929024431286</v>
+        <v>15.43863281534007</v>
       </c>
       <c r="C6">
-        <v>13.26037635951283</v>
+        <v>13.15467872122054</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.289379538849525</v>
+        <v>3.108372646141813</v>
       </c>
       <c r="F6">
-        <v>31.56731044190037</v>
+        <v>31.61074056583492</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.107074996334145</v>
       </c>
       <c r="H6">
-        <v>26.8640399004927</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>12.53708459237371</v>
+        <v>27.11406596407389</v>
       </c>
       <c r="J6">
-        <v>14.59389498448243</v>
+        <v>12.74192847676072</v>
       </c>
       <c r="K6">
-        <v>6.842161108636975</v>
+        <v>14.46700453550879</v>
       </c>
       <c r="L6">
-        <v>11.68000613807857</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>6.86428630162568</v>
+      </c>
+      <c r="M6">
+        <v>11.62283250341135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.94504607362278</v>
+        <v>15.84270843781373</v>
       </c>
       <c r="C7">
-        <v>13.61249829209383</v>
+        <v>13.50424257257982</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3.308884739911763</v>
+        <v>3.130375025779229</v>
       </c>
       <c r="F7">
-        <v>32.22950690190365</v>
+        <v>32.26828322769789</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.103636341707447</v>
       </c>
       <c r="H7">
-        <v>27.19027530496332</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>12.55053742627264</v>
+        <v>27.43280233848244</v>
       </c>
       <c r="J7">
-        <v>14.96819640290577</v>
+        <v>12.75357894607901</v>
       </c>
       <c r="K7">
-        <v>6.997213301456902</v>
+        <v>14.84027935039166</v>
       </c>
       <c r="L7">
-        <v>11.94944427809033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>7.01885483089811</v>
+      </c>
+      <c r="M7">
+        <v>11.8920585939131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.64663540499013</v>
+        <v>17.5373346760538</v>
       </c>
       <c r="C8">
-        <v>15.09293014236443</v>
+        <v>14.97431096430826</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.398322841503701</v>
+        <v>3.256717323926302</v>
       </c>
       <c r="F8">
-        <v>35.06320513100592</v>
+        <v>35.08342406430981</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.088786835441183</v>
       </c>
       <c r="H8">
-        <v>28.63327568941375</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>12.62047905568497</v>
+        <v>28.84461219103989</v>
       </c>
       <c r="J8">
-        <v>16.53900198096985</v>
+        <v>12.81542135262629</v>
       </c>
       <c r="K8">
-        <v>7.648361193997595</v>
+        <v>16.4065294419349</v>
       </c>
       <c r="L8">
-        <v>13.08186610313123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>7.668092707794945</v>
+      </c>
+      <c r="M8">
+        <v>13.02336181201517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.67694294265568</v>
+        <v>20.55530566472591</v>
       </c>
       <c r="C9">
-        <v>17.74495029219841</v>
+        <v>17.60875635124798</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3.584170353993567</v>
+        <v>3.522832715421047</v>
       </c>
       <c r="F9">
-        <v>40.28758811794567</v>
+        <v>40.27778738595354</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.060601865654605</v>
       </c>
       <c r="H9">
-        <v>31.46741021277851</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>12.80220882605678</v>
+        <v>31.62486507564909</v>
       </c>
       <c r="J9">
-        <v>19.34109344886635</v>
+        <v>12.98056527283414</v>
       </c>
       <c r="K9">
-        <v>8.808901678196582</v>
+        <v>19.19956608491795</v>
       </c>
       <c r="L9">
-        <v>15.10500420046444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>8.825572490565426</v>
+      </c>
+      <c r="M9">
+        <v>15.04369372282389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.73038878434071</v>
+        <v>22.60021947969593</v>
       </c>
       <c r="C10">
-        <v>19.55408872976116</v>
+        <v>19.40620190121417</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3.725770414562161</v>
+        <v>3.698344100517873</v>
       </c>
       <c r="F10">
-        <v>43.99761486723096</v>
+        <v>43.94243453120355</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.04021079342212</v>
       </c>
       <c r="H10">
-        <v>33.55069492567851</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>12.96987648224659</v>
+        <v>33.67311171178905</v>
       </c>
       <c r="J10">
-        <v>21.24354928576254</v>
+        <v>13.13543327318976</v>
       </c>
       <c r="K10">
-        <v>9.593825651808391</v>
+        <v>21.09519690284642</v>
       </c>
       <c r="L10">
-        <v>16.47802277283482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>9.608569474627499</v>
+      </c>
+      <c r="M10">
+        <v>16.41426930525236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.63054102428176</v>
+        <v>23.49654224359571</v>
       </c>
       <c r="C11">
-        <v>20.35041299308299</v>
+        <v>20.19737740622268</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.791059317096051</v>
+        <v>3.773535886009138</v>
       </c>
       <c r="F11">
-        <v>45.69608305972564</v>
+        <v>45.63378809301448</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.030936929191776</v>
       </c>
       <c r="H11">
-        <v>34.4996804673285</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>13.05534801144988</v>
+        <v>34.6071075310966</v>
       </c>
       <c r="J11">
-        <v>22.07851107132536</v>
+        <v>13.214901852633</v>
       </c>
       <c r="K11">
-        <v>9.937097225070575</v>
+        <v>21.92697860161072</v>
       </c>
       <c r="L11">
-        <v>17.07996045370964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>9.951015232146501</v>
+      </c>
+      <c r="M11">
+        <v>17.01500032891409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.96685729422407</v>
+        <v>23.83140980211894</v>
       </c>
       <c r="C12">
-        <v>20.64846836698665</v>
+        <v>20.49349933129096</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.815894128536316</v>
+        <v>3.801312620484062</v>
       </c>
       <c r="F12">
-        <v>46.33189234734537</v>
+        <v>46.26695080641595</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.02741901678721</v>
       </c>
       <c r="H12">
-        <v>34.85940692086836</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>13.08920803365527</v>
+        <v>34.96128735040966</v>
       </c>
       <c r="J12">
-        <v>22.3906334357633</v>
+        <v>13.24645825284596</v>
       </c>
       <c r="K12">
-        <v>10.06518963837186</v>
+        <v>22.23788148540419</v>
       </c>
       <c r="L12">
-        <v>17.30483159458157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>10.07880064346898</v>
+      </c>
+      <c r="M12">
+        <v>17.23939900949231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.89462223221144</v>
+        <v>23.75948678807475</v>
       </c>
       <c r="C13">
-        <v>20.58442636145396</v>
+        <v>20.42987314432745</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3.810540736765224</v>
+        <v>3.795361870018899</v>
       </c>
       <c r="F13">
-        <v>46.19527923533202</v>
+        <v>46.13090577431203</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.028177045717146</v>
       </c>
       <c r="H13">
-        <v>34.78191326652465</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>13.08184626034546</v>
+        <v>34.88498263682471</v>
       </c>
       <c r="J13">
-        <v>22.32358724055976</v>
+        <v>13.23959403882712</v>
       </c>
       <c r="K13">
-        <v>10.03768550326346</v>
+        <v>22.17109868860819</v>
       </c>
       <c r="L13">
-        <v>17.25653478669053</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>10.05136239863574</v>
+      </c>
+      <c r="M13">
+        <v>17.1912046812072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.65829912651758</v>
+        <v>23.52418116852112</v>
       </c>
       <c r="C14">
-        <v>20.37500213096205</v>
+        <v>20.22180720186293</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.79310032719026</v>
+        <v>3.775835229735327</v>
       </c>
       <c r="F14">
-        <v>45.74853630812559</v>
+        <v>45.68602272747559</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.030647670764978</v>
       </c>
       <c r="H14">
-        <v>34.52926668534829</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>13.05810269508274</v>
+        <v>34.63623487536614</v>
       </c>
       <c r="J14">
-        <v>22.10426892146489</v>
+        <v>13.21746765421615</v>
       </c>
       <c r="K14">
-        <v>9.947672944145994</v>
+        <v>21.95263645953035</v>
       </c>
       <c r="L14">
-        <v>17.09852107684322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>9.961565588789586</v>
+      </c>
+      <c r="M14">
+        <v>17.03352240646609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.5129622505251</v>
+        <v>23.37946752442215</v>
       </c>
       <c r="C15">
-        <v>20.24627940108739</v>
+        <v>20.09391832473075</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3.78243171986106</v>
+        <v>3.763782978541585</v>
       </c>
       <c r="F15">
-        <v>45.47394846927057</v>
+        <v>45.41257992863565</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.032159999215719</v>
       </c>
       <c r="H15">
-        <v>34.3745679381447</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>13.04375908410701</v>
+        <v>34.48394089926052</v>
       </c>
       <c r="J15">
-        <v>21.9694117626815</v>
+        <v>13.20411050376369</v>
       </c>
       <c r="K15">
-        <v>9.892293381949223</v>
+        <v>21.81830154327096</v>
       </c>
       <c r="L15">
-        <v>17.00133943758628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>9.906318875306305</v>
+      </c>
+      <c r="M15">
+        <v>16.93654169332025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.67090564318172</v>
+        <v>22.54098715058318</v>
       </c>
       <c r="C16">
-        <v>19.50153845977461</v>
+        <v>19.35399085629594</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3.721519892771995</v>
+        <v>3.693334230110769</v>
       </c>
       <c r="F16">
-        <v>43.88556055108482</v>
+        <v>43.83085253466918</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.040816378172197</v>
       </c>
       <c r="H16">
-        <v>33.48871589663106</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>12.96448992888573</v>
+        <v>33.61213087726615</v>
       </c>
       <c r="J16">
-        <v>21.18839596321277</v>
+        <v>13.13043502851859</v>
       </c>
       <c r="K16">
-        <v>9.571121581680941</v>
+        <v>21.04024953895378</v>
       </c>
       <c r="L16">
-        <v>16.43824430008011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>9.585920261387514</v>
+      </c>
+      <c r="M16">
+        <v>16.37456763200171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.14585431021994</v>
+        <v>22.01813895818904</v>
       </c>
       <c r="C17">
-        <v>19.03806200521337</v>
+        <v>18.89350530972172</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3.684364778742357</v>
+        <v>3.648906086822325</v>
       </c>
       <c r="F17">
-        <v>42.8975426644569</v>
+        <v>42.85763807252098</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.046123054998403</v>
       </c>
       <c r="H17">
-        <v>32.94570595842364</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>12.91833165899667</v>
+        <v>33.07797441771584</v>
       </c>
       <c r="J17">
-        <v>20.70167932016414</v>
+        <v>13.08765911715201</v>
       </c>
       <c r="K17">
-        <v>9.370617699237746</v>
+        <v>20.55532900277192</v>
       </c>
       <c r="L17">
-        <v>16.08712635286942</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>9.38590260156006</v>
+      </c>
+      <c r="M17">
+        <v>16.02411192705809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.84063893150964</v>
+        <v>21.71419604349528</v>
       </c>
       <c r="C18">
-        <v>18.76895028766333</v>
+        <v>18.62613044313914</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3.663077051613478</v>
+        <v>3.622916386987189</v>
       </c>
       <c r="F18">
-        <v>42.33947761046252</v>
+        <v>42.31888726564363</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.049175949694105</v>
       </c>
       <c r="H18">
-        <v>32.63348643868252</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>12.89263700977552</v>
+        <v>32.77093712134459</v>
       </c>
       <c r="J18">
-        <v>20.41884272196292</v>
+        <v>13.06389324276223</v>
       </c>
       <c r="K18">
-        <v>9.253988887972076</v>
+        <v>20.27351871296617</v>
       </c>
       <c r="L18">
-        <v>15.88302732750844</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>9.26955832922439</v>
+      </c>
+      <c r="M18">
+        <v>15.82038497973171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.73673579266947</v>
+        <v>21.6107248152316</v>
       </c>
       <c r="C19">
-        <v>18.67738917619551</v>
+        <v>18.53516048330517</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>3.6558841431702</v>
+        <v>3.61404269211888</v>
       </c>
       <c r="F19">
-        <v>42.15542882949833</v>
+        <v>42.13578941601533</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.050209897010321</v>
       </c>
       <c r="H19">
-        <v>32.52778828287683</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>12.88407912933288</v>
+        <v>32.66700918647374</v>
       </c>
       <c r="J19">
-        <v>20.32257358280906</v>
+        <v>13.05598567599387</v>
       </c>
       <c r="K19">
-        <v>9.214273930820651</v>
+        <v>20.17759601842338</v>
       </c>
       <c r="L19">
-        <v>15.81354916690073</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>9.229940596869769</v>
+      </c>
+      <c r="M19">
+        <v>15.75103132706656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.20207787510592</v>
+        <v>22.07412748986798</v>
       </c>
       <c r="C20">
-        <v>19.08765964405618</v>
+        <v>18.94278290473309</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>3.688311541463358</v>
+        <v>3.653680839403288</v>
       </c>
       <c r="F20">
-        <v>43.00324649779105</v>
+        <v>42.95702440990693</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.045558128037259</v>
       </c>
       <c r="H20">
-        <v>33.00349834897846</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>12.92315569436163</v>
+        <v>33.13481507286687</v>
       </c>
       <c r="J20">
-        <v>20.75378804433658</v>
+        <v>13.09212485025432</v>
       </c>
       <c r="K20">
-        <v>9.392096081024327</v>
+        <v>20.60724725675173</v>
       </c>
       <c r="L20">
-        <v>16.12472421025508</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>9.407328730674157</v>
+      </c>
+      <c r="M20">
+        <v>16.0616402121417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.72783361266085</v>
+        <v>23.59341680798586</v>
       </c>
       <c r="C21">
-        <v>20.43660703165952</v>
+        <v>20.28301276822885</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3.798220069151597</v>
+        <v>3.781589825065386</v>
       </c>
       <c r="F21">
-        <v>45.87995156483768</v>
+        <v>45.81689050513692</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.029922209642388</v>
       </c>
       <c r="H21">
-        <v>34.60346328615825</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>13.06503473547323</v>
+        <v>34.70928284864684</v>
       </c>
       <c r="J21">
-        <v>22.16879541428037</v>
+        <v>13.22392555490521</v>
       </c>
       <c r="K21">
-        <v>9.974162547785442</v>
+        <v>22.01691195296872</v>
       </c>
       <c r="L21">
-        <v>17.14501519920912</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>9.987991679535654</v>
+      </c>
+      <c r="M21">
+        <v>17.07991961756102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.6986596855425</v>
+        <v>24.56002152291425</v>
       </c>
       <c r="C22">
-        <v>21.29804182787628</v>
+        <v>21.13884054856677</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.870697271905204</v>
+        <v>3.86110928267194</v>
       </c>
       <c r="F22">
-        <v>47.71738905391315</v>
+        <v>47.64669866925558</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.019663981866327</v>
       </c>
       <c r="H22">
-        <v>35.6514176225699</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>13.16656501477417</v>
+        <v>35.74132373911528</v>
       </c>
       <c r="J22">
-        <v>23.07010527586086</v>
+        <v>13.31868901040859</v>
       </c>
       <c r="K22">
-        <v>10.343568655567</v>
+        <v>22.91463821961079</v>
       </c>
       <c r="L22">
-        <v>17.79405121429809</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>10.35651301888706</v>
+      </c>
+      <c r="M22">
+        <v>17.72754909203854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.18279994037857</v>
+        <v>24.04641659290122</v>
       </c>
       <c r="C23">
-        <v>20.83999960881653</v>
+        <v>20.68378557191929</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3.831959277992386</v>
+        <v>3.81905130265612</v>
       </c>
       <c r="F23">
-        <v>46.74045289654428</v>
+        <v>46.67381402211539</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.025144954943978</v>
       </c>
       <c r="H23">
-        <v>35.0918120392403</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>13.11150799514121</v>
+        <v>35.19014582046804</v>
       </c>
       <c r="J23">
-        <v>22.59108915466591</v>
+        <v>13.26726173210968</v>
       </c>
       <c r="K23">
-        <v>10.14738488596012</v>
+        <v>22.43754491689002</v>
       </c>
       <c r="L23">
-        <v>17.44920574796972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>10.16079904047046</v>
+      </c>
+      <c r="M23">
+        <v>17.38346351329362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.17666968033024</v>
+        <v>22.04882553494676</v>
       </c>
       <c r="C24">
-        <v>19.06524483972672</v>
+        <v>18.92051273760952</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>3.686526980728092</v>
+        <v>3.65152356513793</v>
       </c>
       <c r="F24">
-        <v>42.95547458751994</v>
+        <v>42.91210493854275</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.045813524767848</v>
       </c>
       <c r="H24">
-        <v>32.97737053343996</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>12.9209721368734</v>
+        <v>33.10911724911397</v>
       </c>
       <c r="J24">
-        <v>20.73023911030823</v>
+        <v>13.09010333006466</v>
       </c>
       <c r="K24">
-        <v>9.382389936047218</v>
+        <v>20.58378445359762</v>
       </c>
       <c r="L24">
-        <v>16.10773319939388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>9.39764619342899</v>
+      </c>
+      <c r="M24">
+        <v>16.04468068174634</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.88862478003629</v>
+        <v>19.77021141150549</v>
       </c>
       <c r="C25">
-        <v>17.05306136988284</v>
+        <v>16.92137624695301</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3.53291799917316</v>
+        <v>3.454252654817213</v>
       </c>
       <c r="F25">
-        <v>38.91043557536875</v>
+        <v>38.90814368601433</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.0681508946857</v>
       </c>
       <c r="H25">
-        <v>30.70062306365072</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>12.74759785166252</v>
+        <v>30.87185218286788</v>
       </c>
       <c r="J25">
-        <v>18.61154430522131</v>
+        <v>12.93053463598274</v>
       </c>
       <c r="K25">
-        <v>8.507105810352883</v>
+        <v>18.47248689245954</v>
       </c>
       <c r="L25">
-        <v>14.57818354651728</v>
+        <v>8.524541594526445</v>
+      </c>
+      <c r="M25">
+        <v>14.51769674671253</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.9753806412854</v>
+        <v>20.53140317724323</v>
       </c>
       <c r="C2">
-        <v>15.35537738336914</v>
+        <v>10.83068625793863</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.295689548033824</v>
+        <v>6.22388571747357</v>
       </c>
       <c r="F2">
-        <v>35.82445797007468</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.084835011838103</v>
+        <v>2.113201679863215</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.228112631677</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>12.8349183975241</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.81161791775026</v>
+        <v>16.21603454849899</v>
       </c>
       <c r="L2">
-        <v>7.836081192334719</v>
+        <v>6.188923541797528</v>
       </c>
       <c r="M2">
-        <v>13.31625788749757</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.71521304025713</v>
+      </c>
+      <c r="N2">
+        <v>14.22124917604506</v>
+      </c>
+      <c r="O2">
+        <v>25.06336867442585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.68144697122694</v>
+        <v>19.31387246785922</v>
       </c>
       <c r="C3">
-        <v>14.23102022729702</v>
+        <v>10.14364582901963</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.180384935908029</v>
+        <v>6.248084070744349</v>
       </c>
       <c r="F3">
-        <v>33.65069954341454</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.096373499148233</v>
+        <v>2.122386548105405</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.11685433644582</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>12.781528643341</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.61531176793008</v>
+        <v>15.16772546236684</v>
       </c>
       <c r="L3">
-        <v>7.340024572029804</v>
+        <v>6.115731973136207</v>
       </c>
       <c r="M3">
-        <v>12.45158584495336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.25745550112408</v>
+      </c>
+      <c r="N3">
+        <v>14.47713134432244</v>
+      </c>
+      <c r="O3">
+        <v>24.59055106063353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.8473876479238</v>
+        <v>18.54150573754103</v>
       </c>
       <c r="C4">
-        <v>13.50829271922213</v>
+        <v>9.701594924732964</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.130634068272658</v>
+        <v>6.264134897944651</v>
       </c>
       <c r="F4">
-        <v>32.27593115098763</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.103596292721596</v>
+        <v>2.12816516896418</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.4365353280083</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>12.75372070214005</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14.84460229011976</v>
+        <v>14.55311709574169</v>
       </c>
       <c r="L4">
-        <v>7.020645422763236</v>
+        <v>6.073640738230615</v>
       </c>
       <c r="M4">
-        <v>11.89517760786411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.97648534480621</v>
+      </c>
+      <c r="N4">
+        <v>14.63775454591884</v>
+      </c>
+      <c r="O4">
+        <v>24.32151028721109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.49736992610529</v>
+        <v>18.22077147685407</v>
       </c>
       <c r="C5">
-        <v>13.20546871741877</v>
+        <v>9.516345522746789</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.111525381972257</v>
+        <v>6.270969924693852</v>
       </c>
       <c r="F5">
-        <v>31.70595992724087</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.106577576484479</v>
+        <v>2.13055682160962</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.15994880062776</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>12.7435497393637</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>14.52126016161159</v>
+        <v>14.29777431933669</v>
       </c>
       <c r="L5">
-        <v>6.886747060525581</v>
+        <v>6.057198187022506</v>
       </c>
       <c r="M5">
-        <v>11.66195274634028</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.86214793562032</v>
+      </c>
+      <c r="N5">
+        <v>14.70411455802436</v>
+      </c>
+      <c r="O5">
+        <v>24.21709842626471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.43863281534007</v>
+        <v>18.16716074865531</v>
       </c>
       <c r="C6">
-        <v>13.15467872122054</v>
+        <v>9.485275790784073</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.108372646141813</v>
+        <v>6.272122486339929</v>
       </c>
       <c r="F6">
-        <v>31.61074056583492</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.107074996334145</v>
+        <v>2.130956229048878</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.11406596407389</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>12.74192847676072</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>14.46700453550879</v>
+        <v>14.25508636323578</v>
       </c>
       <c r="L6">
-        <v>6.86428630162568</v>
+        <v>6.054510595587397</v>
       </c>
       <c r="M6">
-        <v>11.62283250341135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.84317622595743</v>
+      </c>
+      <c r="N6">
+        <v>14.71518887824623</v>
+      </c>
+      <c r="O6">
+        <v>24.20007262024552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.84270843781373</v>
+        <v>18.53720407101185</v>
       </c>
       <c r="C7">
-        <v>13.50424257257982</v>
+        <v>9.699117305325331</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3.130375025779229</v>
+        <v>6.264225893548886</v>
       </c>
       <c r="F7">
-        <v>32.26828322769789</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.103636341707447</v>
+        <v>2.128197272202675</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.43280233848244</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>12.75357894607901</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.84027935039166</v>
+        <v>14.54969294518211</v>
       </c>
       <c r="L7">
-        <v>7.01885483089811</v>
+        <v>6.073416122452903</v>
       </c>
       <c r="M7">
-        <v>11.8920585939131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.97494251139573</v>
+      </c>
+      <c r="N7">
+        <v>14.63864580770304</v>
+      </c>
+      <c r="O7">
+        <v>24.32008117056175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.5373346760538</v>
+        <v>20.11687177357365</v>
       </c>
       <c r="C8">
-        <v>14.97431096430826</v>
+        <v>10.59796623965298</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.256717323926302</v>
+        <v>6.231978027035177</v>
       </c>
       <c r="F8">
-        <v>35.08342406430981</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.088786835441183</v>
+        <v>2.116340909893602</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.84461219103989</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>12.81542135262629</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>16.4065294419349</v>
+        <v>15.82680521089018</v>
       </c>
       <c r="L8">
-        <v>7.668092707794945</v>
+        <v>6.163092161811472</v>
       </c>
       <c r="M8">
-        <v>13.02336181201517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.55743578198374</v>
+      </c>
+      <c r="N8">
+        <v>14.30876195496658</v>
+      </c>
+      <c r="O8">
+        <v>24.89585427325649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.55530566472591</v>
+        <v>23.01050406243365</v>
       </c>
       <c r="C9">
-        <v>17.60875635124798</v>
+        <v>12.20235677532077</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3.522832715421047</v>
+        <v>6.178503201868557</v>
       </c>
       <c r="F9">
-        <v>40.27778738595354</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.060601865654605</v>
+        <v>2.094103419385515</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>31.62486507564909</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>12.98056527283414</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>19.19956608491795</v>
+        <v>18.49909858448161</v>
       </c>
       <c r="L9">
-        <v>8.825572490565426</v>
+        <v>6.36182868994553</v>
       </c>
       <c r="M9">
-        <v>15.04369372282389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.69530311499448</v>
+      </c>
+      <c r="N9">
+        <v>13.68873357783123</v>
+      </c>
+      <c r="O9">
+        <v>26.19896243366535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.60021947969593</v>
+        <v>25.06934996553002</v>
       </c>
       <c r="C10">
-        <v>19.40620190121417</v>
+        <v>13.28850561586258</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3.698344100517873</v>
+        <v>6.145646893166809</v>
       </c>
       <c r="F10">
-        <v>43.94243453120355</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>2.04021079342212</v>
+        <v>2.078244168388899</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>33.67311171178905</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>13.13543327318976</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>21.09519690284642</v>
+        <v>20.29526245142187</v>
       </c>
       <c r="L10">
-        <v>9.608569474627499</v>
+        <v>6.522205728031863</v>
       </c>
       <c r="M10">
-        <v>16.41426930525236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.52308251346082</v>
+      </c>
+      <c r="N10">
+        <v>13.248277778676</v>
+      </c>
+      <c r="O10">
+        <v>27.26960365148472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.49654224359571</v>
+        <v>26.02381986123287</v>
       </c>
       <c r="C11">
-        <v>20.19737740622268</v>
+        <v>13.7636341198747</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.773535886009138</v>
+        <v>6.132225432136526</v>
       </c>
       <c r="F11">
-        <v>45.63378809301448</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>2.030936929191776</v>
+        <v>2.071098625332954</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>34.6071075310966</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>13.214901852633</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>21.92697860161072</v>
+        <v>21.07810438366606</v>
       </c>
       <c r="L11">
-        <v>9.951015232146501</v>
+        <v>6.598391359845013</v>
       </c>
       <c r="M11">
-        <v>17.01500032891409</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>14.89712776379873</v>
+      </c>
+      <c r="N11">
+        <v>13.05092995324782</v>
+      </c>
+      <c r="O11">
+        <v>27.78290231084841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.83140980211894</v>
+        <v>26.37984456197233</v>
       </c>
       <c r="C12">
-        <v>20.49349933129096</v>
+        <v>13.94093618064048</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.801312620484062</v>
+        <v>6.127375306878116</v>
       </c>
       <c r="F12">
-        <v>46.26695080641595</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>2.02741901678721</v>
+        <v>2.068399461386979</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>34.96128735040966</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>13.24645825284596</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>22.23788148540419</v>
+        <v>21.36980730731695</v>
       </c>
       <c r="L12">
-        <v>10.07880064346898</v>
+        <v>6.627715774590925</v>
       </c>
       <c r="M12">
-        <v>17.23939900949231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.03837357550099</v>
+      </c>
+      <c r="N12">
+        <v>12.97661768587466</v>
+      </c>
+      <c r="O12">
+        <v>27.98120324383791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.75948678807475</v>
+        <v>26.30340598029591</v>
       </c>
       <c r="C13">
-        <v>20.42987314432745</v>
+        <v>13.90286558167061</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3.795361870018899</v>
+        <v>6.128409308356582</v>
       </c>
       <c r="F13">
-        <v>46.13090577431203</v>
+        <v>39.56266403258221</v>
       </c>
       <c r="G13">
-        <v>2.028177045717146</v>
+        <v>2.068980531739426</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>34.88498263682471</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>13.23959403882712</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>22.17109868860819</v>
+        <v>21.30719169340851</v>
       </c>
       <c r="L13">
-        <v>10.05136239863574</v>
+        <v>6.621378942474232</v>
       </c>
       <c r="M13">
-        <v>17.1912046812072</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15.00797173166398</v>
+      </c>
+      <c r="N13">
+        <v>12.99260371698883</v>
+      </c>
+      <c r="O13">
+        <v>27.93831835149162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.52418116852112</v>
+        <v>26.05321762595763</v>
       </c>
       <c r="C14">
-        <v>20.22180720186293</v>
+        <v>13.77827267311643</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.775835229735327</v>
+        <v>6.13182167235151</v>
       </c>
       <c r="F14">
-        <v>45.68602272747559</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.030647670764978</v>
+        <v>2.070876448926093</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>34.63623487536614</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>13.21746765421615</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>21.95263645953035</v>
+        <v>21.10219689734772</v>
       </c>
       <c r="L14">
-        <v>9.961565588789586</v>
+        <v>6.600794319118989</v>
       </c>
       <c r="M14">
-        <v>17.03352240646609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14.90875621715136</v>
+      </c>
+      <c r="N14">
+        <v>13.04480791024129</v>
+      </c>
+      <c r="O14">
+        <v>27.7991370276411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.37946752442215</v>
+        <v>25.89927070507395</v>
       </c>
       <c r="C15">
-        <v>20.09391832473075</v>
+        <v>13.7016183675886</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3.763782978541585</v>
+        <v>6.13394251475005</v>
       </c>
       <c r="F15">
-        <v>45.41257992863565</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>2.032159999215719</v>
+        <v>2.072038523827198</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>34.48394089926052</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>13.20411050376369</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>21.81830154327096</v>
+        <v>20.97601977191826</v>
       </c>
       <c r="L15">
-        <v>9.906318875306305</v>
+        <v>6.58824778872811</v>
       </c>
       <c r="M15">
-        <v>16.93654169332025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14.84793149955665</v>
+      </c>
+      <c r="N15">
+        <v>13.07683868817833</v>
+      </c>
+      <c r="O15">
+        <v>27.71440054577505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.54098715058318</v>
+        <v>25.00620588309278</v>
       </c>
       <c r="C16">
-        <v>19.35399085629594</v>
+        <v>13.25708212150276</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3.693334230110769</v>
+        <v>6.146555770901602</v>
       </c>
       <c r="F16">
-        <v>43.83085253466918</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.040816378172197</v>
+        <v>2.078712266574902</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>33.61213087726615</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>13.13043502851859</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>21.04024953895378</v>
+        <v>20.24342797887157</v>
       </c>
       <c r="L16">
-        <v>9.585920261387514</v>
+        <v>6.517292620167033</v>
       </c>
       <c r="M16">
-        <v>16.37456763200171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.49858361236508</v>
+      </c>
+      <c r="N16">
+        <v>13.26123428910872</v>
+      </c>
+      <c r="O16">
+        <v>27.23659909344578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.01813895818904</v>
+        <v>24.4485100403723</v>
       </c>
       <c r="C17">
-        <v>18.89350530972172</v>
+        <v>12.97958814497401</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3.648906086822325</v>
+        <v>6.154692831919089</v>
       </c>
       <c r="F17">
-        <v>42.85763807252098</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>2.046123054998403</v>
+        <v>2.082821865177801</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>33.07797441771584</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>13.08765911715201</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>20.55532900277192</v>
+        <v>19.78536020852451</v>
       </c>
       <c r="L17">
-        <v>9.38590260156006</v>
+        <v>6.4745975942852</v>
       </c>
       <c r="M17">
-        <v>16.02411192705809</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.28359328306625</v>
+      </c>
+      <c r="N17">
+        <v>13.37511618640419</v>
+      </c>
+      <c r="O17">
+        <v>26.95030899816653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.71419604349528</v>
+        <v>24.13941095108265</v>
       </c>
       <c r="C18">
-        <v>18.62613044313914</v>
+        <v>12.81818835090739</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3.622916386987189</v>
+        <v>6.159515711766054</v>
       </c>
       <c r="F18">
-        <v>42.31888726564363</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.049175949694105</v>
+        <v>2.08519229556703</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>32.77093712134459</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>13.06389324276223</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>20.27351871296617</v>
+        <v>19.51865685666703</v>
       </c>
       <c r="L18">
-        <v>9.26955832922439</v>
+        <v>6.450343778322863</v>
       </c>
       <c r="M18">
-        <v>15.82038497973171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.15970042523048</v>
+      </c>
+      <c r="N18">
+        <v>13.44090278280148</v>
+      </c>
+      <c r="O18">
+        <v>26.78810408046002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.6107248152316</v>
+        <v>24.03834033784711</v>
       </c>
       <c r="C19">
-        <v>18.53516048330517</v>
+        <v>12.76323022248997</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>3.61404269211888</v>
+        <v>6.161172793208699</v>
       </c>
       <c r="F19">
-        <v>42.13578941601533</v>
+        <v>36.15172494150062</v>
       </c>
       <c r="G19">
-        <v>2.050209897010321</v>
+        <v>2.085996125136386</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>32.66700918647374</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>13.05598567599387</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>20.17759601842338</v>
+        <v>19.4277948392034</v>
       </c>
       <c r="L19">
-        <v>9.229940596869769</v>
+        <v>6.442183658952716</v>
       </c>
       <c r="M19">
-        <v>15.75103132706656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.11771333196648</v>
+      </c>
+      <c r="N19">
+        <v>13.46322641245341</v>
+      </c>
+      <c r="O19">
+        <v>26.7336028333081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.07412748986798</v>
+        <v>24.50825587058599</v>
       </c>
       <c r="C20">
-        <v>18.94278290473309</v>
+        <v>13.00931264363177</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>3.653680839403288</v>
+        <v>6.153811775498943</v>
       </c>
       <c r="F20">
-        <v>42.95702440990693</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>2.045558128037259</v>
+        <v>2.082383720319428</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>33.13481507286687</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>13.09212485025432</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>20.60724725675173</v>
+        <v>19.83445584330331</v>
       </c>
       <c r="L20">
-        <v>9.407328730674157</v>
+        <v>6.47911110251617</v>
       </c>
       <c r="M20">
-        <v>16.0616402121417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.30650413570335</v>
+      </c>
+      <c r="N20">
+        <v>13.36296391435621</v>
+      </c>
+      <c r="O20">
+        <v>26.98052928713442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.59341680798586</v>
+        <v>26.12684940626984</v>
       </c>
       <c r="C21">
-        <v>20.28301276822885</v>
+        <v>13.81493875956382</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3.781589825065386</v>
+        <v>6.130812960458804</v>
       </c>
       <c r="F21">
-        <v>45.81689050513692</v>
+        <v>39.30090300329769</v>
       </c>
       <c r="G21">
-        <v>2.029922209642388</v>
+        <v>2.070319417686536</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>34.70928284864684</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>13.22392555490521</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>22.01691195296872</v>
+        <v>21.16253600620995</v>
       </c>
       <c r="L21">
-        <v>9.987991679535654</v>
+        <v>6.606827549196866</v>
       </c>
       <c r="M21">
-        <v>17.07991961756102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14.93790915846498</v>
+      </c>
+      <c r="N21">
+        <v>13.02946299817672</v>
+      </c>
+      <c r="O21">
+        <v>27.83991010112596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.56002152291425</v>
+        <v>27.15324697587295</v>
       </c>
       <c r="C22">
-        <v>21.13884054856677</v>
+        <v>14.32625976990509</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.86110928267194</v>
+        <v>6.117143421337924</v>
       </c>
       <c r="F22">
-        <v>47.64669866925558</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>2.019663981866327</v>
+        <v>2.062471980710942</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>35.74132373911528</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>13.31868901040859</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>22.91463821961079</v>
+        <v>22.00296901559804</v>
       </c>
       <c r="L22">
-        <v>10.35651301888706</v>
+        <v>6.693070370346446</v>
       </c>
       <c r="M22">
-        <v>17.72754909203854</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15.34825523683502</v>
+      </c>
+      <c r="N22">
+        <v>12.81393983612528</v>
+      </c>
+      <c r="O22">
+        <v>28.42453569004203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.04641659290122</v>
+        <v>26.60825301273316</v>
       </c>
       <c r="C23">
-        <v>20.68378557191929</v>
+        <v>14.05470903652238</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3.81905130265612</v>
+        <v>6.124309696811738</v>
       </c>
       <c r="F23">
-        <v>46.67381402211539</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.025144954943978</v>
+        <v>2.066658051759477</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>35.19014582046804</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>13.26726173210968</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>22.43754491689002</v>
+        <v>21.55686954708044</v>
       </c>
       <c r="L23">
-        <v>10.16079904047046</v>
+        <v>6.64678322344579</v>
       </c>
       <c r="M23">
-        <v>17.38346351329362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.12946304213432</v>
+      </c>
+      <c r="N23">
+        <v>12.92874922672443</v>
+      </c>
+      <c r="O23">
+        <v>28.11035234468473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.04882553494676</v>
+        <v>24.4812566596272</v>
       </c>
       <c r="C24">
-        <v>18.92051273760952</v>
+        <v>12.99588001425423</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>3.65152356513793</v>
+        <v>6.15420965111801</v>
       </c>
       <c r="F24">
-        <v>42.91210493854275</v>
+        <v>36.85121910575435</v>
       </c>
       <c r="G24">
-        <v>2.045813524767848</v>
+        <v>2.0825817811781</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33.10911724911397</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>13.09010333006466</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>20.58378445359762</v>
+        <v>19.81227016755861</v>
       </c>
       <c r="L24">
-        <v>9.39764619342899</v>
+        <v>6.477069636282387</v>
       </c>
       <c r="M24">
-        <v>16.04468068174634</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.29614704593796</v>
+      </c>
+      <c r="N24">
+        <v>13.36845697615657</v>
+      </c>
+      <c r="O24">
+        <v>26.96685927030089</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.77021141150549</v>
+        <v>22.25031809670149</v>
       </c>
       <c r="C25">
-        <v>16.92137624695301</v>
+        <v>11.78491867873452</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3.454252654817213</v>
+        <v>6.191878984774799</v>
       </c>
       <c r="F25">
-        <v>38.90814368601433</v>
+        <v>33.19272459126709</v>
       </c>
       <c r="G25">
-        <v>2.0681508946857</v>
+        <v>2.100024367036146</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.87185218286788</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>12.93053463598274</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>18.47248689245954</v>
+        <v>17.80616592316359</v>
       </c>
       <c r="L25">
-        <v>8.524541594526445</v>
+        <v>6.305574133379467</v>
       </c>
       <c r="M25">
-        <v>14.51769674671253</v>
+        <v>13.38859564668632</v>
+      </c>
+      <c r="N25">
+        <v>13.85372967463311</v>
+      </c>
+      <c r="O25">
+        <v>25.82707125314523</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/loading_percent.xlsx
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>28.1630198432674</v>
+        <v>15.89584955866815</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -437,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>26.79314218379239</v>
+        <v>15.2699775710849</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -445,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>15.008197319934</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -453,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>14.96433081551589</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -461,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617555</v>
+        <v>15.26647399323134</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344772</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.0027458068253</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -493,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>21.39172256362241</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>21.65686569030329</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -509,7 +509,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>21.60004134736741</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -517,7 +517,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503955</v>
+        <v>21.4136618050453</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -525,7 +525,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.9631930912341</v>
+        <v>21.29868154950794</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -541,7 +541,7 @@
         <v>15</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597326</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -549,7 +549,7 @@
         <v>16</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809801</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -557,7 +557,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -565,7 +565,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636154</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -573,7 +573,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>21.46857628470571</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -581,7 +581,7 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901554</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -589,7 +589,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>21.82633154458858</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -597,7 +597,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575425</v>
+        <v>20.22900810905285</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -605,7 +605,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>18.34778573295695</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/loading_percent.xlsx
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.16301984326747</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -437,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>15.2699775710849</v>
+        <v>26.79314218379243</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -445,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.21694803853471</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -453,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -461,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>15.26647399323134</v>
+        <v>26.78544435617554</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>16.53996406344772</v>
+        <v>29.56389055882486</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>19.0027458068253</v>
+        <v>34.4587799414611</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -493,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>21.39172256362241</v>
+        <v>39.14805722232858</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -509,7 +509,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>21.60004134736741</v>
+        <v>39.56266403258221</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -517,7 +517,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503948</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -525,7 +525,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>21.29868154950794</v>
+        <v>38.96319309123412</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028806</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -541,7 +541,7 @@
         <v>15</v>
       </c>
       <c r="F17">
-        <v>20.20408069597326</v>
+        <v>36.80228778268395</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -549,7 +549,7 @@
         <v>16</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239628</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -557,7 +557,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150068</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -565,7 +565,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.891556977314</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -573,7 +573,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>21.46857628470571</v>
+        <v>39.30090300329765</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -581,7 +581,7 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>22.22866616901554</v>
+        <v>40.81974568026781</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -589,7 +589,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038423</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -597,7 +597,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>20.22900810905285</v>
+        <v>36.85121910575435</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -605,7 +605,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126713</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,197 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>11.92924537286578</v>
+      </c>
+      <c r="C2">
+        <v>8.194507671172035</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>8.68303410771917</v>
+      </c>
       <c r="F2">
-        <v>30.27884324296195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>30.27884324296193</v>
+      </c>
+      <c r="G2">
+        <v>19.77571479356292</v>
+      </c>
+      <c r="H2">
+        <v>2.514276717118603</v>
+      </c>
+      <c r="I2">
+        <v>3.132641894736739</v>
+      </c>
+      <c r="J2">
+        <v>8.797343386747796</v>
+      </c>
+      <c r="K2">
+        <v>14.63015837840843</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>10.21135150738157</v>
+      </c>
+      <c r="N2">
+        <v>6.560239361780256</v>
+      </c>
+      <c r="O2">
+        <v>9.486347242003115</v>
+      </c>
+      <c r="P2">
+        <v>13.02345438688583</v>
+      </c>
+      <c r="Q2">
+        <v>13.87110564169398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>11.15168532011878</v>
+      </c>
+      <c r="C3">
+        <v>8.092359848552871</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>8.559913550400752</v>
+      </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="G3">
+        <v>19.77775222293239</v>
+      </c>
+      <c r="H3">
+        <v>2.658790090121677</v>
+      </c>
+      <c r="I3">
+        <v>3.242732667292901</v>
+      </c>
+      <c r="J3">
+        <v>8.85828120450187</v>
+      </c>
+      <c r="K3">
+        <v>14.73839138108064</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>9.70457267071559</v>
+      </c>
+      <c r="N3">
+        <v>6.413424138471539</v>
+      </c>
+      <c r="O3">
+        <v>9.139360078818109</v>
+      </c>
+      <c r="P3">
+        <v>13.12475317298494</v>
+      </c>
+      <c r="Q3">
+        <v>13.94988785556052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>10.65185310765972</v>
+      </c>
+      <c r="C4">
+        <v>8.028789032030573</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>8.482547218267374</v>
+      </c>
       <c r="F4">
-        <v>26.79314218379243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>26.79314218379242</v>
+      </c>
+      <c r="G4">
+        <v>19.78828889556142</v>
+      </c>
+      <c r="H4">
+        <v>2.750983499887504</v>
+      </c>
+      <c r="I4">
+        <v>3.313777846813224</v>
+      </c>
+      <c r="J4">
+        <v>8.897775789498736</v>
+      </c>
+      <c r="K4">
+        <v>14.80787120008642</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>9.378357588257961</v>
+      </c>
+      <c r="N4">
+        <v>6.321855274260385</v>
+      </c>
+      <c r="O4">
+        <v>8.919405194251819</v>
+      </c>
+      <c r="P4">
+        <v>13.18890228257622</v>
+      </c>
+      <c r="Q4">
+        <v>14.0027550057852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>10.44099713306069</v>
+      </c>
+      <c r="C5">
+        <v>8.004421810359892</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>8.449035658856239</v>
+      </c>
       <c r="F5">
-        <v>26.21694803853471</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>26.21694803853475</v>
+      </c>
+      <c r="G5">
+        <v>19.78693784558977</v>
+      </c>
+      <c r="H5">
+        <v>2.789706720925078</v>
+      </c>
+      <c r="I5">
+        <v>3.346280042755674</v>
+      </c>
+      <c r="J5">
+        <v>8.913189978586312</v>
+      </c>
+      <c r="K5">
+        <v>14.8337172864993</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>9.241674397452222</v>
+      </c>
+      <c r="N5">
+        <v>6.284725156485889</v>
+      </c>
+      <c r="O5">
+        <v>8.827033388792257</v>
+      </c>
+      <c r="P5">
+        <v>13.2156596112493</v>
+      </c>
+      <c r="Q5">
+        <v>14.02232642532099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>10.39970359162664</v>
+      </c>
+      <c r="C6">
+        <v>8.002535558936662</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>8.441542821113956</v>
+      </c>
       <c r="F6">
-        <v>26.12018204701072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>26.1201820470107</v>
+      </c>
+      <c r="G6">
+        <v>19.77718167833405</v>
+      </c>
+      <c r="H6">
+        <v>2.796525227668543</v>
+      </c>
+      <c r="I6">
+        <v>3.355171522695747</v>
+      </c>
+      <c r="J6">
+        <v>8.914317758070133</v>
+      </c>
+      <c r="K6">
+        <v>14.83412204051379</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>9.218693038374646</v>
+      </c>
+      <c r="N6">
+        <v>6.279164872387584</v>
+      </c>
+      <c r="O6">
+        <v>8.81023725370644</v>
+      </c>
+      <c r="P6">
+        <v>13.22029164169274</v>
+      </c>
+      <c r="Q6">
+        <v>14.02188251509081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>10.63343427754625</v>
+      </c>
+      <c r="C7">
+        <v>8.034417484013028</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>8.476944619734747</v>
+      </c>
       <c r="F7">
-        <v>26.78544435617554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>26.78544435617556</v>
+      </c>
+      <c r="G7">
+        <v>19.76189788138346</v>
+      </c>
+      <c r="H7">
+        <v>2.752399733885663</v>
+      </c>
+      <c r="I7">
+        <v>3.323296187820036</v>
+      </c>
+      <c r="J7">
+        <v>8.893996880393091</v>
+      </c>
+      <c r="K7">
+        <v>14.79749411624312</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>9.376358205554252</v>
+      </c>
+      <c r="N7">
+        <v>6.323053890176141</v>
+      </c>
+      <c r="O7">
+        <v>8.914490473619571</v>
+      </c>
+      <c r="P7">
+        <v>13.1897541739945</v>
+      </c>
+      <c r="Q7">
+        <v>13.99276072370336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>11.64885855147373</v>
+      </c>
+      <c r="C8">
+        <v>8.167483642543536</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>8.634345392858741</v>
+      </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="G8">
+        <v>19.73978482767099</v>
+      </c>
+      <c r="H8">
+        <v>2.564501757314329</v>
+      </c>
+      <c r="I8">
+        <v>3.181395015459791</v>
+      </c>
+      <c r="J8">
+        <v>8.81269003972759</v>
+      </c>
+      <c r="K8">
+        <v>14.65274199550347</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>10.03958850576461</v>
+      </c>
+      <c r="N8">
+        <v>6.51215351038191</v>
+      </c>
+      <c r="O8">
+        <v>9.363554842286614</v>
+      </c>
+      <c r="P8">
+        <v>13.05888239378691</v>
+      </c>
+      <c r="Q8">
+        <v>13.8838198326795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>13.43397080177026</v>
+      </c>
+      <c r="C9">
+        <v>8.411088950051274</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>8.937084848380499</v>
+      </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="G9">
+        <v>19.82017673956392</v>
+      </c>
+      <c r="H9">
+        <v>2.221651538277272</v>
+      </c>
+      <c r="I9">
+        <v>2.915459402105042</v>
+      </c>
+      <c r="J9">
+        <v>8.677095897973647</v>
+      </c>
+      <c r="K9">
+        <v>14.41233376480847</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>11.21786362807432</v>
+      </c>
+      <c r="N9">
+        <v>6.867274795420468</v>
+      </c>
+      <c r="O9">
+        <v>10.19126838917428</v>
+      </c>
+      <c r="P9">
+        <v>12.81644638579336</v>
+      </c>
+      <c r="Q9">
+        <v>13.72536347066699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>14.55276345048821</v>
+      </c>
+      <c r="C10">
+        <v>8.609761738947764</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>9.037252541438926</v>
+      </c>
       <c r="F10">
-        <v>37.72874519847221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>37.72874519847217</v>
+      </c>
+      <c r="G10">
+        <v>19.79432978911842</v>
+      </c>
+      <c r="H10">
+        <v>2.015412969775334</v>
+      </c>
+      <c r="I10">
+        <v>2.746150421443771</v>
+      </c>
+      <c r="J10">
+        <v>8.567735135005417</v>
+      </c>
+      <c r="K10">
+        <v>14.20100103139886</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>12.00475110561977</v>
+      </c>
+      <c r="N10">
+        <v>7.020713376534259</v>
+      </c>
+      <c r="O10">
+        <v>10.67127184126068</v>
+      </c>
+      <c r="P10">
+        <v>12.65494370092121</v>
+      </c>
+      <c r="Q10">
+        <v>13.57995068970043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>14.69593186160426</v>
+      </c>
+      <c r="C11">
+        <v>8.914631865507641</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>8.249967915584513</v>
+      </c>
       <c r="F11">
-        <v>39.14805722232858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>39.14805722232856</v>
+      </c>
+      <c r="G11">
+        <v>18.69142257333438</v>
+      </c>
+      <c r="H11">
+        <v>2.959327067371135</v>
+      </c>
+      <c r="I11">
+        <v>2.723877764742223</v>
+      </c>
+      <c r="J11">
+        <v>8.355518264651776</v>
+      </c>
+      <c r="K11">
+        <v>13.71588416706587</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>12.3396646045119</v>
+      </c>
+      <c r="N11">
+        <v>6.285607814357766</v>
+      </c>
+      <c r="O11">
+        <v>10.14176434836537</v>
+      </c>
+      <c r="P11">
+        <v>12.65768864165671</v>
+      </c>
+      <c r="Q11">
+        <v>13.08839607862863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>14.60663383993737</v>
+      </c>
+      <c r="C12">
+        <v>9.15474141493487</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>7.770137786711794</v>
+      </c>
       <c r="F12">
-        <v>39.67592721363783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>39.67592721363786</v>
+      </c>
+      <c r="G12">
+        <v>17.8053245278714</v>
+      </c>
+      <c r="H12">
+        <v>4.291812571222319</v>
+      </c>
+      <c r="I12">
+        <v>2.719946918538259</v>
+      </c>
+      <c r="J12">
+        <v>8.206401156906907</v>
+      </c>
+      <c r="K12">
+        <v>13.38377201968885</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>12.46286463830747</v>
+      </c>
+      <c r="N12">
+        <v>5.705609358469203</v>
+      </c>
+      <c r="O12">
+        <v>9.596681274367276</v>
+      </c>
+      <c r="P12">
+        <v>12.70858808136691</v>
+      </c>
+      <c r="Q12">
+        <v>12.72232982394234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>14.31268384891771</v>
+      </c>
+      <c r="C13">
+        <v>9.365508289652741</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>7.522183105653071</v>
+      </c>
       <c r="F13">
-        <v>39.56266403258221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>39.56266403260141</v>
+      </c>
+      <c r="G13">
+        <v>16.99449570843757</v>
+      </c>
+      <c r="H13">
+        <v>5.685928553072116</v>
+      </c>
+      <c r="I13">
+        <v>2.745171205066605</v>
+      </c>
+      <c r="J13">
+        <v>8.091208201983402</v>
+      </c>
+      <c r="K13">
+        <v>13.13547767615628</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>12.4338193728479</v>
+      </c>
+      <c r="N13">
+        <v>5.233604240216867</v>
+      </c>
+      <c r="O13">
+        <v>8.992094656733226</v>
+      </c>
+      <c r="P13">
+        <v>12.79653500337849</v>
+      </c>
+      <c r="Q13">
+        <v>12.41669506720162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>14.00654596791228</v>
+      </c>
+      <c r="C14">
+        <v>9.505671299973127</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>7.496702794084683</v>
+      </c>
       <c r="F14">
-        <v>39.19167637503948</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>39.19167637503955</v>
+      </c>
+      <c r="G14">
+        <v>16.46348999123918</v>
+      </c>
+      <c r="H14">
+        <v>6.679781930758965</v>
+      </c>
+      <c r="I14">
+        <v>2.77892157825184</v>
+      </c>
+      <c r="J14">
+        <v>8.026148409393851</v>
+      </c>
+      <c r="K14">
+        <v>13.00253672586935</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>12.34428138430425</v>
+      </c>
+      <c r="N14">
+        <v>4.983814121812623</v>
+      </c>
+      <c r="O14">
+        <v>8.538124994164729</v>
+      </c>
+      <c r="P14">
+        <v>12.87562115006381</v>
+      </c>
+      <c r="Q14">
+        <v>12.23131795863201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>13.88217126206725</v>
+      </c>
+      <c r="C15">
+        <v>9.533777957219822</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>7.510164011181719</v>
+      </c>
       <c r="F15">
         <v>38.96319309123412</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="G15">
+        <v>16.34380727750851</v>
+      </c>
+      <c r="H15">
+        <v>6.911298725328427</v>
+      </c>
+      <c r="I15">
+        <v>2.798268871951356</v>
+      </c>
+      <c r="J15">
+        <v>8.016412719836511</v>
+      </c>
+      <c r="K15">
+        <v>12.98372571737997</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>12.2894034851609</v>
+      </c>
+      <c r="N15">
+        <v>4.936453165616712</v>
+      </c>
+      <c r="O15">
+        <v>8.413458527359943</v>
+      </c>
+      <c r="P15">
+        <v>12.90117819221429</v>
+      </c>
+      <c r="Q15">
+        <v>12.19623388330276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>13.45361423676085</v>
+      </c>
+      <c r="C16">
+        <v>9.409349846701174</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>7.505490285242013</v>
+      </c>
       <c r="F16">
-        <v>37.63463543028806</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>37.63463543028812</v>
+      </c>
+      <c r="G16">
+        <v>16.50680113910022</v>
+      </c>
+      <c r="H16">
+        <v>6.709685227276145</v>
+      </c>
+      <c r="I16">
+        <v>2.871572635319547</v>
+      </c>
+      <c r="J16">
+        <v>8.084810218166655</v>
+      </c>
+      <c r="K16">
+        <v>13.12162561020684</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>11.97041287911008</v>
+      </c>
+      <c r="N16">
+        <v>4.957392515286756</v>
+      </c>
+      <c r="O16">
+        <v>8.305704710788444</v>
+      </c>
+      <c r="P16">
+        <v>12.941231134068</v>
+      </c>
+      <c r="Q16">
+        <v>12.31733606711962</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>13.28846810280368</v>
+      </c>
+      <c r="C17">
+        <v>9.235835622875351</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>7.491995622241181</v>
+      </c>
       <c r="F17">
-        <v>36.80228778268395</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>36.8022877826839</v>
+      </c>
+      <c r="G17">
+        <v>16.90871493354953</v>
+      </c>
+      <c r="H17">
+        <v>5.99536839881807</v>
+      </c>
+      <c r="I17">
+        <v>2.910639685808923</v>
+      </c>
+      <c r="J17">
+        <v>8.17131997016209</v>
+      </c>
+      <c r="K17">
+        <v>13.29483863205397</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>11.7705469620333</v>
+      </c>
+      <c r="N17">
+        <v>5.091848584432809</v>
+      </c>
+      <c r="O17">
+        <v>8.469624769136185</v>
+      </c>
+      <c r="P17">
+        <v>12.93136157803539</v>
+      </c>
+      <c r="Q17">
+        <v>12.5066167018705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>13.34947684829119</v>
+      </c>
+      <c r="C18">
+        <v>9.005374346402562</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>7.601618282721096</v>
+      </c>
       <c r="F18">
-        <v>36.31710943239628</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>36.31710943239624</v>
+      </c>
+      <c r="G18">
+        <v>17.58875614221385</v>
+      </c>
+      <c r="H18">
+        <v>4.792719075349093</v>
+      </c>
+      <c r="I18">
+        <v>2.912555013838348</v>
+      </c>
+      <c r="J18">
+        <v>8.287243071319848</v>
+      </c>
+      <c r="K18">
+        <v>13.53561834540747</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>11.65513772549888</v>
+      </c>
+      <c r="N18">
+        <v>5.413130844071683</v>
+      </c>
+      <c r="O18">
+        <v>8.892960503708764</v>
+      </c>
+      <c r="P18">
+        <v>12.88221705528538</v>
+      </c>
+      <c r="Q18">
+        <v>12.78710782440077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>13.56476138181172</v>
+      </c>
+      <c r="C19">
+        <v>8.78834275519795</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>7.981853593491299</v>
+      </c>
       <c r="F19">
-        <v>36.15172494150068</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>36.15172494157628</v>
+      </c>
+      <c r="G19">
+        <v>18.41979998895398</v>
+      </c>
+      <c r="H19">
+        <v>3.406642049987789</v>
+      </c>
+      <c r="I19">
+        <v>2.901596382266885</v>
+      </c>
+      <c r="J19">
+        <v>8.415164179729901</v>
+      </c>
+      <c r="K19">
+        <v>13.81663561427846</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>11.61819985455665</v>
+      </c>
+      <c r="N19">
+        <v>5.95115189046609</v>
+      </c>
+      <c r="O19">
+        <v>9.489428522954457</v>
+      </c>
+      <c r="P19">
+        <v>12.81871642161898</v>
+      </c>
+      <c r="Q19">
+        <v>13.11313792621057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>14.22998746865128</v>
+      </c>
+      <c r="C20">
+        <v>8.578756509449125</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>8.992179728664899</v>
+      </c>
       <c r="F20">
-        <v>36.891556977314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>36.89155697731405</v>
+      </c>
+      <c r="G20">
+        <v>19.71255171782613</v>
+      </c>
+      <c r="H20">
+        <v>2.070333199835293</v>
+      </c>
+      <c r="I20">
+        <v>2.820429035859603</v>
+      </c>
+      <c r="J20">
+        <v>8.5828353005409</v>
+      </c>
+      <c r="K20">
+        <v>14.22094606987299</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>11.80311731488</v>
+      </c>
+      <c r="N20">
+        <v>6.981289737986271</v>
+      </c>
+      <c r="O20">
+        <v>10.53408773896159</v>
+      </c>
+      <c r="P20">
+        <v>12.70038597872329</v>
+      </c>
+      <c r="Q20">
+        <v>13.58303335341408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>15.10960697132848</v>
+      </c>
+      <c r="C21">
+        <v>8.69476167585724</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>9.239713516355703</v>
+      </c>
       <c r="F21">
-        <v>39.30090300329765</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>39.30090300329764</v>
+      </c>
+      <c r="G21">
+        <v>19.91916917186173</v>
+      </c>
+      <c r="H21">
+        <v>1.872646913476176</v>
+      </c>
+      <c r="I21">
+        <v>2.683358353932812</v>
+      </c>
+      <c r="J21">
+        <v>8.533707478187731</v>
+      </c>
+      <c r="K21">
+        <v>14.14048864943042</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>12.38286772525824</v>
+      </c>
+      <c r="N21">
+        <v>7.247859997261845</v>
+      </c>
+      <c r="O21">
+        <v>11.02384882236668</v>
+      </c>
+      <c r="P21">
+        <v>12.56918647349072</v>
+      </c>
+      <c r="Q21">
+        <v>13.56137980940223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>15.65240108806212</v>
+      </c>
+      <c r="C22">
+        <v>8.772368541623345</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>9.348869838807898</v>
+      </c>
       <c r="F22">
-        <v>40.81974568026781</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>40.81974568026784</v>
+      </c>
+      <c r="G22">
+        <v>20.03431672734714</v>
+      </c>
+      <c r="H22">
+        <v>1.759184389546457</v>
+      </c>
+      <c r="I22">
+        <v>2.586064664581901</v>
+      </c>
+      <c r="J22">
+        <v>8.499322129210086</v>
+      </c>
+      <c r="K22">
+        <v>14.08176124652385</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>12.74677091899815</v>
+      </c>
+      <c r="N22">
+        <v>7.367112904327436</v>
+      </c>
+      <c r="O22">
+        <v>11.29510792229278</v>
+      </c>
+      <c r="P22">
+        <v>12.48682369836427</v>
+      </c>
+      <c r="Q22">
+        <v>13.5406665779544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>15.37824396765275</v>
+      </c>
+      <c r="C23">
+        <v>8.723512362050576</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>9.296111637000633</v>
+      </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>20.00166230626894</v>
+      </c>
+      <c r="H23">
+        <v>1.818690165043216</v>
+      </c>
+      <c r="I23">
+        <v>2.625554857712102</v>
+      </c>
+      <c r="J23">
+        <v>8.52205465472213</v>
+      </c>
+      <c r="K23">
+        <v>14.12520428901952</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>12.5540293055311</v>
+      </c>
+      <c r="N23">
+        <v>7.301813508016014</v>
+      </c>
+      <c r="O23">
+        <v>11.1546575765242</v>
+      </c>
+      <c r="P23">
+        <v>12.52915316088135</v>
+      </c>
+      <c r="Q23">
+        <v>13.56309409600255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>14.26650967634964</v>
+      </c>
+      <c r="C24">
+        <v>8.54907665907367</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>9.084070378677321</v>
+      </c>
       <c r="F24">
-        <v>36.85121910575435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>36.85121910575438</v>
+      </c>
+      <c r="G24">
+        <v>19.85348566081874</v>
+      </c>
+      <c r="H24">
+        <v>2.050750776837694</v>
+      </c>
+      <c r="I24">
+        <v>2.800422070145764</v>
+      </c>
+      <c r="J24">
+        <v>8.605339250894389</v>
+      </c>
+      <c r="K24">
+        <v>14.27678172931705</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>11.79421618386259</v>
+      </c>
+      <c r="N24">
+        <v>7.052964858345587</v>
+      </c>
+      <c r="O24">
+        <v>10.60018311845605</v>
+      </c>
+      <c r="P24">
+        <v>12.69542620722307</v>
+      </c>
+      <c r="Q24">
+        <v>13.63994614779658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>12.9542981078774</v>
+      </c>
+      <c r="C25">
+        <v>8.357088442646532</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>8.848195769534344</v>
+      </c>
       <c r="F25">
         <v>33.19272459126713</v>
+      </c>
+      <c r="G25">
+        <v>19.74293307543651</v>
+      </c>
+      <c r="H25">
+        <v>2.312948379122172</v>
+      </c>
+      <c r="I25">
+        <v>3.001087526410924</v>
+      </c>
+      <c r="J25">
+        <v>8.704854865988825</v>
+      </c>
+      <c r="K25">
+        <v>14.45557977993153</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>10.91238189604844</v>
+      </c>
+      <c r="N25">
+        <v>6.775727726161408</v>
+      </c>
+      <c r="O25">
+        <v>9.968267182713623</v>
+      </c>
+      <c r="P25">
+        <v>12.88203334464791</v>
+      </c>
+      <c r="Q25">
+        <v>13.74576416380843</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.92924537286578</v>
+        <v>11.82982064557761</v>
       </c>
       <c r="C2">
-        <v>8.194507671172035</v>
+        <v>7.846101141503121</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.68303410771917</v>
+        <v>8.579045592271395</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>19.77571479356292</v>
+        <v>18.60395386309908</v>
       </c>
       <c r="H2">
-        <v>2.514276717118603</v>
+        <v>2.423691825027619</v>
       </c>
       <c r="I2">
-        <v>3.132641894736739</v>
+        <v>3.015882058765753</v>
       </c>
       <c r="J2">
-        <v>8.797343386747796</v>
+        <v>9.013469227017026</v>
       </c>
       <c r="K2">
-        <v>14.63015837840843</v>
+        <v>14.21842589979983</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.75347836896187</v>
       </c>
       <c r="M2">
-        <v>10.21135150738157</v>
+        <v>9.236116372667365</v>
       </c>
       <c r="N2">
-        <v>6.560239361780256</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.486347242003115</v>
+        <v>10.23039600113711</v>
       </c>
       <c r="P2">
-        <v>13.02345438688583</v>
+        <v>6.671361451543702</v>
       </c>
       <c r="Q2">
-        <v>13.87110564169398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.420235074425348</v>
+      </c>
+      <c r="R2">
+        <v>12.92758083851308</v>
+      </c>
+      <c r="S2">
+        <v>13.58727808760506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.15168532011878</v>
+        <v>11.09170940430657</v>
       </c>
       <c r="C3">
-        <v>8.092359848552871</v>
+        <v>7.704410312345794</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.559913550400752</v>
+        <v>8.469994497090484</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>19.77775222293239</v>
+        <v>18.67771445469414</v>
       </c>
       <c r="H3">
-        <v>2.658790090121677</v>
+        <v>2.559295904947504</v>
       </c>
       <c r="I3">
-        <v>3.242732667292901</v>
+        <v>3.114423656189831</v>
       </c>
       <c r="J3">
-        <v>8.85828120450187</v>
+        <v>9.051562670878322</v>
       </c>
       <c r="K3">
-        <v>14.73839138108064</v>
+        <v>14.33609822143218</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.90621255590929</v>
       </c>
       <c r="M3">
-        <v>9.70457267071559</v>
+        <v>9.30135732887824</v>
       </c>
       <c r="N3">
-        <v>6.413424138471539</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.139360078818109</v>
+        <v>9.72752346957061</v>
       </c>
       <c r="P3">
-        <v>13.12475317298494</v>
+        <v>6.527236411856959</v>
       </c>
       <c r="Q3">
-        <v>13.94988785556052</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.078931623758354</v>
+      </c>
+      <c r="R3">
+        <v>13.01720476331974</v>
+      </c>
+      <c r="S3">
+        <v>13.67818092116272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.65185310765972</v>
+        <v>10.60877180542291</v>
       </c>
       <c r="C4">
-        <v>8.028789032030573</v>
+        <v>7.616756946957784</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.482547218267374</v>
+        <v>8.401349903772578</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.78828889556142</v>
+        <v>18.7327688978096</v>
       </c>
       <c r="H4">
-        <v>2.750983499887504</v>
+        <v>2.645830253856116</v>
       </c>
       <c r="I4">
-        <v>3.313777846813224</v>
+        <v>3.178319882958521</v>
       </c>
       <c r="J4">
-        <v>8.897775789498736</v>
+        <v>9.075913121380554</v>
       </c>
       <c r="K4">
-        <v>14.80787120008642</v>
+        <v>14.41059918849316</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.00382492317034</v>
       </c>
       <c r="M4">
-        <v>9.378357588257961</v>
+        <v>9.356273097895041</v>
       </c>
       <c r="N4">
-        <v>6.321855274260385</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.919405194251819</v>
+        <v>9.40393275901997</v>
       </c>
       <c r="P4">
-        <v>13.18890228257622</v>
+        <v>6.437648458258979</v>
       </c>
       <c r="Q4">
-        <v>14.0027550057852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.862356581462736</v>
+      </c>
+      <c r="R4">
+        <v>13.07442139496476</v>
+      </c>
+      <c r="S4">
+        <v>13.7376817215562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.44099713306069</v>
+        <v>10.39978315358708</v>
       </c>
       <c r="C5">
-        <v>8.004421810359892</v>
+        <v>7.583060752884162</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.449035658856239</v>
+        <v>8.371419086301472</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>19.78693784558977</v>
+        <v>18.74956306199845</v>
       </c>
       <c r="H5">
-        <v>2.789706720925078</v>
+        <v>2.682194957229644</v>
       </c>
       <c r="I5">
-        <v>3.346280042755674</v>
+        <v>3.208362570518424</v>
       </c>
       <c r="J5">
-        <v>8.913189978586312</v>
+        <v>9.084840890918661</v>
       </c>
       <c r="K5">
-        <v>14.8337172864993</v>
+        <v>14.43833844897957</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.04117600947803</v>
       </c>
       <c r="M5">
-        <v>9.241674397452222</v>
+        <v>9.380993197808836</v>
       </c>
       <c r="N5">
-        <v>6.284725156485889</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.827033388792257</v>
+        <v>9.26838407901341</v>
       </c>
       <c r="P5">
-        <v>13.2156596112493</v>
+        <v>6.401406778966705</v>
       </c>
       <c r="Q5">
-        <v>14.02232642532099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.771322212761271</v>
+      </c>
+      <c r="R5">
+        <v>13.09845284973631</v>
+      </c>
+      <c r="S5">
+        <v>13.75976103403147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.39970359162664</v>
+        <v>10.35888391027376</v>
       </c>
       <c r="C6">
-        <v>8.002535558936662</v>
+        <v>7.58015086914862</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.441542821113956</v>
+        <v>8.364533966656573</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>19.77718167833405</v>
+        <v>18.74272297018474</v>
       </c>
       <c r="H6">
-        <v>2.796525227668543</v>
+        <v>2.688613787568855</v>
       </c>
       <c r="I6">
-        <v>3.355171522695747</v>
+        <v>3.217462187515584</v>
       </c>
       <c r="J6">
-        <v>8.914317758070133</v>
+        <v>9.0848275305706</v>
       </c>
       <c r="K6">
-        <v>14.83412204051379</v>
+        <v>14.43909313408514</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.04330515800166</v>
       </c>
       <c r="M6">
-        <v>9.218693038374646</v>
+        <v>9.383658881580601</v>
       </c>
       <c r="N6">
-        <v>6.279164872387584</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.81023725370644</v>
+        <v>9.245600576385065</v>
       </c>
       <c r="P6">
-        <v>13.22029164169274</v>
+        <v>6.395995609312985</v>
       </c>
       <c r="Q6">
-        <v>14.02188251509081</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.754737358171278</v>
+      </c>
+      <c r="R6">
+        <v>13.102688561132</v>
+      </c>
+      <c r="S6">
+        <v>13.75972635353027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.63343427754625</v>
+        <v>10.58780039588897</v>
       </c>
       <c r="C7">
-        <v>8.034417484013028</v>
+        <v>7.621161778624725</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.476944619734747</v>
+        <v>8.396602034711576</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>19.76189788138346</v>
+        <v>18.76653666520392</v>
       </c>
       <c r="H7">
-        <v>2.752399733885663</v>
+        <v>2.64762368661398</v>
       </c>
       <c r="I7">
-        <v>3.323296187820036</v>
+        <v>3.189866430203656</v>
       </c>
       <c r="J7">
-        <v>8.893996880393091</v>
+        <v>9.047816907179332</v>
       </c>
       <c r="K7">
-        <v>14.79749411624312</v>
+        <v>14.39649055888951</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.98933242935227</v>
       </c>
       <c r="M7">
-        <v>9.376358205554252</v>
+        <v>9.349892380335003</v>
       </c>
       <c r="N7">
-        <v>6.323053890176141</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.914490473619571</v>
+        <v>9.398279761331192</v>
       </c>
       <c r="P7">
-        <v>13.1897541739945</v>
+        <v>6.438457404741904</v>
       </c>
       <c r="Q7">
-        <v>13.99276072370336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.856279005578651</v>
+      </c>
+      <c r="R7">
+        <v>13.07576970580926</v>
+      </c>
+      <c r="S7">
+        <v>13.72147057009903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.64885855147373</v>
+        <v>11.55397394108768</v>
       </c>
       <c r="C8">
-        <v>8.167483642543536</v>
+        <v>7.799076873116481</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.634345392858741</v>
+        <v>8.537889311938731</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>19.73978482767099</v>
+        <v>18.79423383550039</v>
       </c>
       <c r="H8">
-        <v>2.564501757314329</v>
+        <v>2.47216377186728</v>
       </c>
       <c r="I8">
-        <v>3.181395015459791</v>
+        <v>3.06408172491654</v>
       </c>
       <c r="J8">
-        <v>8.81269003972759</v>
+        <v>8.943228513364913</v>
       </c>
       <c r="K8">
-        <v>14.65274199550347</v>
+        <v>14.23201350460802</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.78049386296206</v>
       </c>
       <c r="M8">
-        <v>10.03958850576461</v>
+        <v>9.240049708526994</v>
       </c>
       <c r="N8">
-        <v>6.51215351038191</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.363554842286614</v>
+        <v>10.04841895550324</v>
       </c>
       <c r="P8">
-        <v>13.05888239378691</v>
+        <v>6.622901894269913</v>
       </c>
       <c r="Q8">
-        <v>13.8838198326795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.295716932406686</v>
+      </c>
+      <c r="R8">
+        <v>12.96080008567888</v>
+      </c>
+      <c r="S8">
+        <v>13.58373400241257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.43397080177026</v>
+        <v>13.24835397389402</v>
       </c>
       <c r="C9">
-        <v>8.411088950051274</v>
+        <v>8.138039591612143</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.937084848380499</v>
+        <v>8.806911110346228</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>19.82017673956392</v>
+        <v>18.75574111689597</v>
       </c>
       <c r="H9">
-        <v>2.221651538277272</v>
+        <v>2.150742089548308</v>
       </c>
       <c r="I9">
-        <v>2.915459402105042</v>
+        <v>2.825119818855315</v>
       </c>
       <c r="J9">
-        <v>8.677095897973647</v>
+        <v>8.83716681444244</v>
       </c>
       <c r="K9">
-        <v>14.41233376480847</v>
+        <v>13.96013318610944</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.43302574612358</v>
       </c>
       <c r="M9">
-        <v>11.21786362807432</v>
+        <v>9.16181631293532</v>
       </c>
       <c r="N9">
-        <v>6.867274795420468</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.19126838917428</v>
+        <v>11.21621217773007</v>
       </c>
       <c r="P9">
-        <v>12.81644638579336</v>
+        <v>6.972876708977065</v>
       </c>
       <c r="Q9">
-        <v>13.72536347066699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.10818629060454</v>
+      </c>
+      <c r="R9">
+        <v>12.74984626099096</v>
+      </c>
+      <c r="S9">
+        <v>13.38470691610688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.55276345048821</v>
+        <v>14.29991096350078</v>
       </c>
       <c r="C10">
-        <v>8.609761738947764</v>
+        <v>8.395639443311044</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.037252541438926</v>
+        <v>8.891232287424739</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>19.79432978911842</v>
+        <v>19.01546734822514</v>
       </c>
       <c r="H10">
-        <v>2.015412969775334</v>
+        <v>1.961230896091708</v>
       </c>
       <c r="I10">
-        <v>2.746150421443771</v>
+        <v>2.677976733799351</v>
       </c>
       <c r="J10">
-        <v>8.567735135005417</v>
+        <v>8.621599238502892</v>
       </c>
       <c r="K10">
-        <v>14.20100103139886</v>
+        <v>13.70683805461366</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.15105987116203</v>
       </c>
       <c r="M10">
-        <v>12.00475110561977</v>
+        <v>9.122978529047927</v>
       </c>
       <c r="N10">
-        <v>7.020713376534259</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.67127184126068</v>
+        <v>11.97906023641633</v>
       </c>
       <c r="P10">
-        <v>12.65494370092121</v>
+        <v>7.121633073599551</v>
       </c>
       <c r="Q10">
-        <v>13.57995068970043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.57229822334787</v>
+      </c>
+      <c r="R10">
+        <v>12.61853841463573</v>
+      </c>
+      <c r="S10">
+        <v>13.17465751968017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.69593186160426</v>
+        <v>14.43274144265949</v>
       </c>
       <c r="C11">
-        <v>8.914631865507641</v>
+        <v>8.715683393752583</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.249967915584513</v>
+        <v>8.13098345355003</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>18.69142257333438</v>
+        <v>18.71605376616799</v>
       </c>
       <c r="H11">
-        <v>2.959327067371135</v>
+        <v>2.926969267097431</v>
       </c>
       <c r="I11">
-        <v>2.723877764742223</v>
+        <v>2.668099549866465</v>
       </c>
       <c r="J11">
-        <v>8.355518264651776</v>
+        <v>8.24873215255286</v>
       </c>
       <c r="K11">
-        <v>13.71588416706587</v>
+        <v>13.23176388119313</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.79291726723778</v>
       </c>
       <c r="M11">
-        <v>12.3396646045119</v>
+        <v>8.793017114196209</v>
       </c>
       <c r="N11">
-        <v>6.285607814357766</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.14176434836537</v>
+        <v>12.27473544993046</v>
       </c>
       <c r="P11">
-        <v>12.65768864165671</v>
+        <v>6.376861064726564</v>
       </c>
       <c r="Q11">
-        <v>13.08839607862863</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.03655067977084</v>
+      </c>
+      <c r="R11">
+        <v>12.65605339252426</v>
+      </c>
+      <c r="S11">
+        <v>12.6455075670725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.60663383993737</v>
+        <v>14.35633374683195</v>
       </c>
       <c r="C12">
-        <v>9.15474141493487</v>
+        <v>8.951628412068834</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.770137786711794</v>
+        <v>7.67053126423041</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>17.8053245278714</v>
+        <v>18.20022407139313</v>
       </c>
       <c r="H12">
-        <v>4.291812571222319</v>
+        <v>4.269998178961024</v>
       </c>
       <c r="I12">
-        <v>2.719946918538259</v>
+        <v>2.666141412178901</v>
       </c>
       <c r="J12">
-        <v>8.206401156906907</v>
+        <v>8.092892181464689</v>
       </c>
       <c r="K12">
-        <v>13.38377201968885</v>
+        <v>12.93322860172383</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.59509239556567</v>
       </c>
       <c r="M12">
-        <v>12.46286463830747</v>
+        <v>8.548014074859992</v>
       </c>
       <c r="N12">
-        <v>5.705609358469203</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.596681274367276</v>
+        <v>12.37998715905977</v>
       </c>
       <c r="P12">
-        <v>12.70858808136691</v>
+        <v>5.790392045657897</v>
       </c>
       <c r="Q12">
-        <v>12.72232982394234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.493400624718436</v>
+      </c>
+      <c r="R12">
+        <v>12.72678886529267</v>
+      </c>
+      <c r="S12">
+        <v>12.2879259337448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.31268384891771</v>
+        <v>14.0999732877585</v>
       </c>
       <c r="C13">
-        <v>9.365508289652741</v>
+        <v>9.157951899356934</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.522183105653071</v>
+        <v>7.439033344329919</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>16.99449570843757</v>
+        <v>17.28635201095883</v>
       </c>
       <c r="H13">
-        <v>5.685928553072116</v>
+        <v>5.668036924961923</v>
       </c>
       <c r="I13">
-        <v>2.745171205066605</v>
+        <v>2.687590484299017</v>
       </c>
       <c r="J13">
-        <v>8.091208201983402</v>
+        <v>8.05726060095383</v>
       </c>
       <c r="K13">
-        <v>13.13547767615628</v>
+        <v>12.7395683400119</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.48102661579204</v>
       </c>
       <c r="M13">
-        <v>12.4338193728479</v>
+        <v>8.35585012222649</v>
       </c>
       <c r="N13">
-        <v>5.233604240216867</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>8.992094656733226</v>
+        <v>12.35550979950267</v>
       </c>
       <c r="P13">
-        <v>12.79653500337849</v>
+        <v>5.314843770852252</v>
       </c>
       <c r="Q13">
-        <v>12.41669506720162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>8.899190387312297</v>
+      </c>
+      <c r="R13">
+        <v>12.81743728667146</v>
+      </c>
+      <c r="S13">
+        <v>12.03559494493184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.00654596791228</v>
+        <v>13.83170427595435</v>
       </c>
       <c r="C14">
-        <v>9.505671299973127</v>
+        <v>9.296130932552844</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.496702794084683</v>
+        <v>7.425328786092621</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>16.46348999123918</v>
+        <v>16.49166935824039</v>
       </c>
       <c r="H14">
-        <v>6.679781930758965</v>
+        <v>6.662994218348429</v>
       </c>
       <c r="I14">
-        <v>2.77892157825184</v>
+        <v>2.716719274159413</v>
       </c>
       <c r="J14">
-        <v>8.026148409393851</v>
+        <v>8.070226641027796</v>
       </c>
       <c r="K14">
-        <v>13.00253672586935</v>
+        <v>12.64930377143313</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.43192219479275</v>
       </c>
       <c r="M14">
-        <v>12.34428138430425</v>
+        <v>8.249515798247369</v>
       </c>
       <c r="N14">
-        <v>4.983814121812623</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.538124994164729</v>
+        <v>12.27915118057476</v>
       </c>
       <c r="P14">
-        <v>12.87562115006381</v>
+        <v>5.063822743696682</v>
       </c>
       <c r="Q14">
-        <v>12.23131795863201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.4559446625215</v>
+      </c>
+      <c r="R14">
+        <v>12.88906508229361</v>
+      </c>
+      <c r="S14">
+        <v>11.90303058216811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.88217126206725</v>
+        <v>13.72159815010734</v>
       </c>
       <c r="C15">
-        <v>9.533777957219822</v>
+        <v>9.325418790779844</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.510164011181719</v>
+        <v>7.442485710924562</v>
       </c>
       <c r="F15">
         <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>16.34380727750851</v>
+        <v>16.23225788486547</v>
       </c>
       <c r="H15">
-        <v>6.911298725328427</v>
+        <v>6.894330949197802</v>
       </c>
       <c r="I15">
-        <v>2.798268871951356</v>
+        <v>2.734514598238842</v>
       </c>
       <c r="J15">
-        <v>8.016412719836511</v>
+        <v>8.09025621206758</v>
       </c>
       <c r="K15">
-        <v>12.98372571737997</v>
+        <v>12.64305066684385</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.4298508657882</v>
       </c>
       <c r="M15">
-        <v>12.2894034851609</v>
+        <v>8.233194756748313</v>
       </c>
       <c r="N15">
-        <v>4.936453165616712</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.413458527359943</v>
+        <v>12.23182826213745</v>
       </c>
       <c r="P15">
-        <v>12.90117819221429</v>
+        <v>5.016825338688599</v>
       </c>
       <c r="Q15">
-        <v>12.19623388330276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.335343408974213</v>
+      </c>
+      <c r="R15">
+        <v>12.90908759646257</v>
+      </c>
+      <c r="S15">
+        <v>11.8873046158089</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.45361423676085</v>
+        <v>13.33587586211816</v>
       </c>
       <c r="C16">
-        <v>9.409349846701174</v>
+        <v>9.210483400464543</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.505490285242013</v>
+        <v>7.444861923153137</v>
       </c>
       <c r="F16">
         <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>16.50680113910022</v>
+        <v>15.80188333985321</v>
       </c>
       <c r="H16">
-        <v>6.709685227276145</v>
+        <v>6.688405460445597</v>
       </c>
       <c r="I16">
-        <v>2.871572635319547</v>
+        <v>2.797313817330329</v>
       </c>
       <c r="J16">
-        <v>8.084810218166655</v>
+        <v>8.272189071971322</v>
       </c>
       <c r="K16">
-        <v>13.12162561020684</v>
+        <v>12.80069780052371</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.53429304589394</v>
       </c>
       <c r="M16">
-        <v>11.97041287911008</v>
+        <v>8.330351776011858</v>
       </c>
       <c r="N16">
-        <v>4.957392515286756</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.305704710788444</v>
+        <v>11.94917605787504</v>
       </c>
       <c r="P16">
-        <v>12.941231134068</v>
+        <v>5.044306979169817</v>
       </c>
       <c r="Q16">
-        <v>12.31733606711962</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.239914218133187</v>
+      </c>
+      <c r="R16">
+        <v>12.91908613050474</v>
+      </c>
+      <c r="S16">
+        <v>12.06349928916895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.28846810280368</v>
+        <v>13.17947429095218</v>
       </c>
       <c r="C17">
-        <v>9.235835622875351</v>
+        <v>9.03836470665356</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.491995622241181</v>
+        <v>7.427426525706428</v>
       </c>
       <c r="F17">
         <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>16.90871493354953</v>
+        <v>15.96109501661548</v>
       </c>
       <c r="H17">
-        <v>5.99536839881807</v>
+        <v>5.969306587010768</v>
       </c>
       <c r="I17">
-        <v>2.910639685808923</v>
+        <v>2.831337785334611</v>
       </c>
       <c r="J17">
-        <v>8.17131997016209</v>
+        <v>8.410551896981998</v>
       </c>
       <c r="K17">
-        <v>13.29483863205397</v>
+        <v>12.96841908529101</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.65086108188135</v>
       </c>
       <c r="M17">
-        <v>11.7705469620333</v>
+        <v>8.452019966302396</v>
       </c>
       <c r="N17">
-        <v>5.091848584432809</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.469624769136185</v>
+        <v>11.76547840905428</v>
       </c>
       <c r="P17">
-        <v>12.93136157803539</v>
+        <v>5.18404893328116</v>
       </c>
       <c r="Q17">
-        <v>12.5066167018705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.406534113201761</v>
+      </c>
+      <c r="R17">
+        <v>12.89492581780583</v>
+      </c>
+      <c r="S17">
+        <v>12.26408196569579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.34947684829119</v>
+        <v>13.22499533872521</v>
       </c>
       <c r="C18">
-        <v>9.005374346402562</v>
+        <v>8.805461473053128</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.601618282721096</v>
+        <v>7.521830402965596</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>17.58875614221385</v>
+        <v>16.51414747429988</v>
       </c>
       <c r="H18">
-        <v>4.792719075349093</v>
+        <v>4.759407630006825</v>
       </c>
       <c r="I18">
-        <v>2.912555013838348</v>
+        <v>2.830077193655606</v>
       </c>
       <c r="J18">
-        <v>8.287243071319848</v>
+        <v>8.541629890236546</v>
       </c>
       <c r="K18">
-        <v>13.53561834540747</v>
+        <v>13.18554053444283</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.80872185129063</v>
       </c>
       <c r="M18">
-        <v>11.65513772549888</v>
+        <v>8.619424041489065</v>
       </c>
       <c r="N18">
-        <v>5.413130844071683</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>8.892960503708764</v>
+        <v>11.65687929066723</v>
       </c>
       <c r="P18">
-        <v>12.88221705528538</v>
+        <v>5.509905628926358</v>
       </c>
       <c r="Q18">
-        <v>12.78710782440077</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>8.826640993040623</v>
+      </c>
+      <c r="R18">
+        <v>12.83858929309261</v>
+      </c>
+      <c r="S18">
+        <v>12.53087283327504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.56476138181172</v>
+        <v>13.40886506241002</v>
       </c>
       <c r="C19">
-        <v>8.78834275519795</v>
+        <v>8.583794937285036</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.981853593491299</v>
+        <v>7.878120990634112</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>18.41979998895398</v>
+        <v>17.26567869916996</v>
       </c>
       <c r="H19">
-        <v>3.406642049987789</v>
+        <v>3.36157979644497</v>
       </c>
       <c r="I19">
-        <v>2.901596382266885</v>
+        <v>2.821529265568525</v>
       </c>
       <c r="J19">
-        <v>8.415164179729901</v>
+        <v>8.662732412936657</v>
       </c>
       <c r="K19">
-        <v>13.81663561427846</v>
+        <v>13.42974083932983</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.98939432907904</v>
       </c>
       <c r="M19">
-        <v>11.61819985455665</v>
+        <v>8.813417128838806</v>
       </c>
       <c r="N19">
-        <v>5.95115189046609</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.489428522954457</v>
+        <v>11.62140092568694</v>
       </c>
       <c r="P19">
-        <v>12.81871642161898</v>
+        <v>6.051506395161634</v>
       </c>
       <c r="Q19">
-        <v>13.11313792621057</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.415976903224726</v>
+      </c>
+      <c r="R19">
+        <v>12.77123826272285</v>
+      </c>
+      <c r="S19">
+        <v>12.8272020063008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.22998746865128</v>
+        <v>14.00249112738891</v>
       </c>
       <c r="C20">
-        <v>8.578756509449125</v>
+        <v>8.364030038417219</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.992179728664899</v>
+        <v>8.847717530785843</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>19.71255171782613</v>
+        <v>18.63455860602295</v>
       </c>
       <c r="H20">
-        <v>2.070333199835293</v>
+        <v>2.010554280841869</v>
       </c>
       <c r="I20">
-        <v>2.820429035859603</v>
+        <v>2.750969214483227</v>
       </c>
       <c r="J20">
-        <v>8.5828353005409</v>
+        <v>8.742564151316772</v>
       </c>
       <c r="K20">
-        <v>14.22094606987299</v>
+        <v>13.75354402212737</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.20908517249109</v>
       </c>
       <c r="M20">
-        <v>11.80311731488</v>
+        <v>9.113543558790486</v>
       </c>
       <c r="N20">
-        <v>6.981289737986271</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.53408773896159</v>
+        <v>11.79441825570711</v>
       </c>
       <c r="P20">
-        <v>12.70038597872329</v>
+        <v>7.08451946146362</v>
       </c>
       <c r="Q20">
-        <v>13.58303335341408</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.44283402910654</v>
+      </c>
+      <c r="R20">
+        <v>12.65422174189015</v>
+      </c>
+      <c r="S20">
+        <v>13.21832962269104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.10960697132848</v>
+        <v>14.78551742418546</v>
       </c>
       <c r="C21">
-        <v>8.69476167585724</v>
+        <v>8.473811437745731</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.239713516355703</v>
+        <v>9.09473990785512</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>19.91916917186173</v>
+        <v>20.26774075719511</v>
       </c>
       <c r="H21">
-        <v>1.872646913476176</v>
+        <v>1.831243309372454</v>
       </c>
       <c r="I21">
-        <v>2.683358353932812</v>
+        <v>2.636424026116402</v>
       </c>
       <c r="J21">
-        <v>8.533707478187731</v>
+        <v>8.267516779696516</v>
       </c>
       <c r="K21">
-        <v>14.14048864943042</v>
+        <v>13.55840005214283</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.00271773465208</v>
       </c>
       <c r="M21">
-        <v>12.38286772525824</v>
+        <v>9.096380574307721</v>
       </c>
       <c r="N21">
-        <v>7.247859997261845</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.02384882236668</v>
+        <v>12.30120408939259</v>
       </c>
       <c r="P21">
-        <v>12.56918647349072</v>
+        <v>7.342892459474903</v>
       </c>
       <c r="Q21">
-        <v>13.56137980940223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>10.90031083468507</v>
+      </c>
+      <c r="R21">
+        <v>12.56042222705917</v>
+      </c>
+      <c r="S21">
+        <v>13.01928550579241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.65240108806212</v>
+        <v>15.26759316540108</v>
       </c>
       <c r="C22">
-        <v>8.772368541623345</v>
+        <v>8.545120682136387</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.348869838807898</v>
+        <v>9.207993922107509</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>20.03431672734714</v>
+        <v>21.47361714225864</v>
       </c>
       <c r="H22">
-        <v>1.759184389546457</v>
+        <v>1.729431157401758</v>
       </c>
       <c r="I22">
-        <v>2.586064664581901</v>
+        <v>2.551019632647401</v>
       </c>
       <c r="J22">
-        <v>8.499322129210086</v>
+        <v>8.024210060306164</v>
       </c>
       <c r="K22">
-        <v>14.08176124652385</v>
+        <v>13.41945494507457</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.86632571495577</v>
       </c>
       <c r="M22">
-        <v>12.74677091899815</v>
+        <v>9.083003752342812</v>
       </c>
       <c r="N22">
-        <v>7.367112904327436</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.29510792229278</v>
+        <v>12.61563551914455</v>
       </c>
       <c r="P22">
-        <v>12.48682369836427</v>
+        <v>7.456628723152214</v>
       </c>
       <c r="Q22">
-        <v>13.5406665779544</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.15009438820836</v>
+      </c>
+      <c r="R22">
+        <v>12.50578309046707</v>
+      </c>
+      <c r="S22">
+        <v>12.87247100491278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.37824396765275</v>
+        <v>15.03108166892916</v>
       </c>
       <c r="C23">
-        <v>8.723512362050576</v>
+        <v>8.503739146205916</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.296111637000633</v>
+        <v>9.150398969420044</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>20.00166230626894</v>
+        <v>20.67946278576651</v>
       </c>
       <c r="H23">
-        <v>1.818690165043216</v>
+        <v>1.782085931303731</v>
       </c>
       <c r="I23">
-        <v>2.625554857712102</v>
+        <v>2.581225849273193</v>
       </c>
       <c r="J23">
-        <v>8.52205465472213</v>
+        <v>8.179173025904163</v>
       </c>
       <c r="K23">
-        <v>14.12520428901952</v>
+        <v>13.51460787080053</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.9518039890538</v>
       </c>
       <c r="M23">
-        <v>12.5540293055311</v>
+        <v>9.108587918591407</v>
       </c>
       <c r="N23">
-        <v>7.301813508016014</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.1546575765242</v>
+        <v>12.45662467937232</v>
       </c>
       <c r="P23">
-        <v>12.52915316088135</v>
+        <v>7.394999484061699</v>
       </c>
       <c r="Q23">
-        <v>13.56309409600255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.0236273944768</v>
+      </c>
+      <c r="R23">
+        <v>12.5303209055507</v>
+      </c>
+      <c r="S23">
+        <v>12.9783157666067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.26650967634964</v>
+        <v>14.03640322216337</v>
       </c>
       <c r="C24">
-        <v>8.54907665907367</v>
+        <v>8.328655418169719</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.084070378677321</v>
+        <v>8.936925781786218</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>19.85348566081874</v>
+        <v>18.75916258379783</v>
       </c>
       <c r="H24">
-        <v>2.050750776837694</v>
+        <v>1.990841446604114</v>
       </c>
       <c r="I24">
-        <v>2.800422070145764</v>
+        <v>2.727464610271891</v>
       </c>
       <c r="J24">
-        <v>8.605339250894389</v>
+        <v>8.766320684350211</v>
       </c>
       <c r="K24">
-        <v>14.27678172931705</v>
+        <v>13.80418347956159</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.24689326093742</v>
       </c>
       <c r="M24">
-        <v>11.79421618386259</v>
+        <v>9.153163647265099</v>
       </c>
       <c r="N24">
-        <v>7.052964858345587</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.60018311845605</v>
+        <v>11.78608239753223</v>
       </c>
       <c r="P24">
-        <v>12.69542620722307</v>
+        <v>7.156633774719928</v>
       </c>
       <c r="Q24">
-        <v>13.63994614779658</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.50835606877015</v>
+      </c>
+      <c r="R24">
+        <v>12.64746809674232</v>
+      </c>
+      <c r="S24">
+        <v>13.27217876295418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.9542981078774</v>
+        <v>12.79539538702687</v>
       </c>
       <c r="C25">
-        <v>8.357088442646532</v>
+        <v>8.065044581939306</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.848195769534344</v>
+        <v>8.725986964886982</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>19.74293307543651</v>
+        <v>18.62192902084389</v>
       </c>
       <c r="H25">
-        <v>2.312948379122172</v>
+        <v>2.235850744540765</v>
       </c>
       <c r="I25">
-        <v>3.001087526410924</v>
+        <v>2.906005157755002</v>
       </c>
       <c r="J25">
-        <v>8.704854865988825</v>
+        <v>8.890887686821488</v>
       </c>
       <c r="K25">
-        <v>14.45557977993153</v>
+        <v>14.01890464549525</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.51334307819029</v>
       </c>
       <c r="M25">
-        <v>10.91238189604844</v>
+        <v>9.160712200549966</v>
       </c>
       <c r="N25">
-        <v>6.775727726161408</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>9.968267182713623</v>
+        <v>10.91802115552655</v>
       </c>
       <c r="P25">
-        <v>12.88203334464791</v>
+        <v>6.882959196285408</v>
       </c>
       <c r="Q25">
-        <v>13.74576416380843</v>
+        <v>9.890823657932415</v>
+      </c>
+      <c r="R25">
+        <v>12.80630944721868</v>
+      </c>
+      <c r="S25">
+        <v>13.42610410414375</v>
       </c>
     </row>
   </sheetData>
